--- a/import/www.city.kobe.lg.jp/child/education/children/img/20160501.xlsx
+++ b/import/www.city.kobe.lg.jp/child/education/children/img/20160501.xlsx
@@ -2500,7 +2500,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="\(#,###\)"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="14"/>
       <name val="ＭＳ 明朝"/>
@@ -7171,10 +7171,10 @@
   <dimension ref="A2:S30"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.09765625" style="8" customWidth="1"/>
     <col min="2" max="2" width="8.59765625" style="8" customWidth="1"/>
@@ -7185,21 +7185,21 @@
     <col min="20" max="16384" width="10.69921875" style="8"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="O2" s="97"/>
       <c r="P2" s="97"/>
       <c r="Q2" s="97"/>
       <c r="R2" s="97"/>
       <c r="S2" s="97"/>
     </row>
-    <row r="3" spans="1:19" ht="22.5" customHeight="1">
+    <row r="3" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O3" s="97"/>
       <c r="P3" s="97"/>
       <c r="Q3" s="97"/>
       <c r="R3" s="97"/>
       <c r="S3" s="97"/>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -7214,7 +7214,7 @@
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -7228,7 +7228,7 @@
       <c r="O5" s="7"/>
       <c r="R5" s="7"/>
     </row>
-    <row r="6" spans="1:19" ht="17.25" customHeight="1">
+    <row r="6" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E6" s="7"/>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
@@ -7243,7 +7243,7 @@
       <c r="R6" s="587"/>
       <c r="S6" s="587"/>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="E7" s="7"/>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
@@ -7258,7 +7258,7 @@
       <c r="R7" s="588"/>
       <c r="S7" s="588"/>
     </row>
-    <row r="8" spans="1:19" ht="17.25" customHeight="1">
+    <row r="8" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E8" s="7"/>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
@@ -7269,7 +7269,7 @@
       <c r="O8" s="5"/>
       <c r="R8" s="7"/>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="E9" s="7"/>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
@@ -7282,11 +7282,11 @@
       <c r="Q9" s="7"/>
       <c r="R9" s="7"/>
     </row>
-    <row r="10" spans="1:19" ht="34.5" customHeight="1"/>
-    <row r="11" spans="1:19">
+    <row r="10" spans="1:19" ht="34.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="98"/>
     </row>
-    <row r="12" spans="1:19" ht="24" customHeight="1">
+    <row r="12" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="461" t="s">
         <v>458</v>
       </c>
@@ -7311,7 +7311,7 @@
       </c>
       <c r="S12" s="583"/>
     </row>
-    <row r="13" spans="1:19" ht="23.25" customHeight="1">
+    <row r="13" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="595" t="s">
         <v>456</v>
       </c>
@@ -7340,7 +7340,7 @@
       <c r="R13" s="585"/>
       <c r="S13" s="586"/>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="597"/>
       <c r="B14" s="598"/>
       <c r="C14" s="601"/>
@@ -7393,7 +7393,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="597"/>
       <c r="B15" s="598"/>
       <c r="C15" s="601"/>
@@ -7426,7 +7426,7 @@
       <c r="R15" s="101"/>
       <c r="S15" s="297"/>
     </row>
-    <row r="16" spans="1:19" ht="14.25" thickBot="1">
+    <row r="16" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="599"/>
       <c r="B16" s="600"/>
       <c r="C16" s="602"/>
@@ -7459,7 +7459,7 @@
       <c r="R16" s="102"/>
       <c r="S16" s="298"/>
     </row>
-    <row r="17" spans="1:19" ht="28.5" customHeight="1" thickTop="1">
+    <row r="17" spans="1:19" ht="28.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A17" s="589" t="s">
         <v>83</v>
       </c>
@@ -7504,7 +7504,7 @@
       <c r="R17" s="468"/>
       <c r="S17" s="106"/>
     </row>
-    <row r="18" spans="1:19" ht="28.5" customHeight="1">
+    <row r="18" spans="1:19" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="593" t="s">
         <v>80</v>
       </c>
@@ -7561,7 +7561,7 @@
         <v>12721</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="28.5" customHeight="1">
+    <row r="19" spans="1:19" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="593" t="s">
         <v>81</v>
       </c>
@@ -7604,7 +7604,7 @@
       <c r="R19" s="108"/>
       <c r="S19" s="108"/>
     </row>
-    <row r="20" spans="1:19" ht="28.5" customHeight="1">
+    <row r="20" spans="1:19" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="606" t="s">
         <v>409</v>
       </c>
@@ -7661,7 +7661,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="28.5" customHeight="1">
+    <row r="21" spans="1:19" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="607"/>
       <c r="B21" s="463" t="s">
         <v>411</v>
@@ -7702,7 +7702,7 @@
       <c r="R21" s="208"/>
       <c r="S21" s="85"/>
     </row>
-    <row r="22" spans="1:19" ht="28.5" customHeight="1">
+    <row r="22" spans="1:19" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="593" t="s">
         <v>82</v>
       </c>
@@ -7743,7 +7743,7 @@
       <c r="R22" s="108"/>
       <c r="S22" s="108"/>
     </row>
-    <row r="23" spans="1:19" ht="28.5" customHeight="1">
+    <row r="23" spans="1:19" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="593" t="s">
         <v>415</v>
       </c>
@@ -7788,7 +7788,7 @@
       <c r="R23" s="108"/>
       <c r="S23" s="108"/>
     </row>
-    <row r="24" spans="1:19" ht="28.5" customHeight="1">
+    <row r="24" spans="1:19" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="593" t="s">
         <v>357</v>
       </c>
@@ -7803,7 +7803,7 @@
         <v>83</v>
       </c>
       <c r="F24" s="105">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G24" s="105">
         <v>71</v>
@@ -7818,7 +7818,7 @@
         <v>12</v>
       </c>
       <c r="K24" s="105">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L24" s="473"/>
       <c r="M24" s="103">
@@ -7843,7 +7843,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="28.5" customHeight="1">
+    <row r="25" spans="1:19" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="593" t="s">
         <v>91</v>
       </c>
@@ -7892,7 +7892,7 @@
       </c>
       <c r="S25" s="108"/>
     </row>
-    <row r="26" spans="1:19" ht="28.5" customHeight="1" thickBot="1">
+    <row r="26" spans="1:19" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="591" t="s">
         <v>92</v>
       </c>
@@ -7927,7 +7927,7 @@
       <c r="R26" s="470"/>
       <c r="S26" s="471"/>
     </row>
-    <row r="27" spans="1:19" ht="28.5" customHeight="1" thickTop="1">
+    <row r="27" spans="1:19" ht="28.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A27" s="589" t="s">
         <v>394</v>
       </c>
@@ -7956,15 +7956,15 @@
       <c r="R27" s="105"/>
       <c r="S27" s="299"/>
     </row>
-    <row r="28" spans="1:19" ht="21" customHeight="1">
+    <row r="28" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="98"/>
     </row>
-    <row r="29" spans="1:19" ht="21" customHeight="1">
+    <row r="29" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D29" s="8" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="30" spans="1:19" ht="21" customHeight="1">
+    <row r="30" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D30" s="8" t="s">
         <v>423</v>
       </c>
@@ -8039,7 +8039,7 @@
       <selection pane="bottomRight" activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="19.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.5" style="213" customWidth="1"/>
     <col min="2" max="2" width="5.796875" style="114" customWidth="1"/>
@@ -8055,7 +8055,7 @@
     <col min="16" max="16384" width="10.69921875" style="114"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="19.5" customHeight="1">
+    <row r="1" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="617" t="s">
         <v>457</v>
       </c>
@@ -8070,7 +8070,7 @@
       <c r="J1" s="119"/>
       <c r="K1" s="119"/>
     </row>
-    <row r="2" spans="1:15" ht="19.5" customHeight="1">
+    <row r="2" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="204"/>
       <c r="B2" s="119"/>
       <c r="C2" s="119"/>
@@ -8088,7 +8088,7 @@
       <c r="N2" s="618"/>
       <c r="O2" s="618"/>
     </row>
-    <row r="3" spans="1:15" ht="19.5" customHeight="1">
+    <row r="3" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="609" t="s">
         <v>42</v>
       </c>
@@ -8113,7 +8113,7 @@
       <c r="N3" s="616"/>
       <c r="O3" s="616"/>
     </row>
-    <row r="4" spans="1:15" ht="19.5" customHeight="1" thickBot="1">
+    <row r="4" spans="1:15" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="610"/>
       <c r="B4" s="260" t="s">
         <v>89</v>
@@ -8156,7 +8156,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="19.5" customHeight="1" thickTop="1" thickBot="1">
+    <row r="5" spans="1:15" ht="19.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="301" t="s">
         <v>163</v>
       </c>
@@ -8201,7 +8201,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="122" customFormat="1" ht="19.5" customHeight="1" thickTop="1" thickBot="1">
+    <row r="6" spans="1:15" s="122" customFormat="1" ht="19.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="302" t="s">
         <v>12</v>
       </c>
@@ -8246,7 +8246,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="122" customFormat="1" ht="19.5" customHeight="1" thickTop="1">
+    <row r="7" spans="1:15" s="122" customFormat="1" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A7" s="303" t="s">
         <v>43</v>
       </c>
@@ -8291,7 +8291,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="19.5" customHeight="1">
+    <row r="8" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="304" t="s">
         <v>44</v>
       </c>
@@ -8330,7 +8330,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="19.5" customHeight="1">
+    <row r="9" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="305" t="s">
         <v>45</v>
       </c>
@@ -8369,7 +8369,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="19.5" customHeight="1">
+    <row r="10" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="305" t="s">
         <v>46</v>
       </c>
@@ -8408,7 +8408,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="19.5" customHeight="1">
+    <row r="11" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="305" t="s">
         <v>13</v>
       </c>
@@ -8447,7 +8447,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="19.5" customHeight="1">
+    <row r="12" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="306" t="s">
         <v>14</v>
       </c>
@@ -8486,7 +8486,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="122" customFormat="1" ht="19.5" customHeight="1">
+    <row r="13" spans="1:15" s="122" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="303" t="s">
         <v>47</v>
       </c>
@@ -8531,7 +8531,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="19.5" customHeight="1">
+    <row r="14" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="304" t="s">
         <v>117</v>
       </c>
@@ -8570,7 +8570,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="19.5" customHeight="1">
+    <row r="15" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="306" t="s">
         <v>48</v>
       </c>
@@ -8607,7 +8607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" s="122" customFormat="1" ht="19.5" customHeight="1">
+    <row r="16" spans="1:15" s="122" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="303" t="s">
         <v>15</v>
       </c>
@@ -8652,7 +8652,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="19.5" customHeight="1">
+    <row r="17" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="304" t="s">
         <v>49</v>
       </c>
@@ -8691,7 +8691,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="19.5" customHeight="1">
+    <row r="18" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="305" t="s">
         <v>50</v>
       </c>
@@ -8730,7 +8730,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="19.5" customHeight="1">
+    <row r="19" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="305" t="s">
         <v>51</v>
       </c>
@@ -8769,7 +8769,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="19.5" customHeight="1">
+    <row r="20" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="306" t="s">
         <v>52</v>
       </c>
@@ -8810,7 +8810,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:15" s="122" customFormat="1" ht="19.5" customHeight="1">
+    <row r="21" spans="1:15" s="122" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="303" t="s">
         <v>17</v>
       </c>
@@ -8855,7 +8855,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="19.5" customHeight="1">
+    <row r="22" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="307" t="s">
         <v>90</v>
       </c>
@@ -8894,7 +8894,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:15" s="122" customFormat="1" ht="19.5" customHeight="1">
+    <row r="23" spans="1:15" s="122" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="303" t="s">
         <v>18</v>
       </c>
@@ -8939,7 +8939,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="19.5" customHeight="1">
+    <row r="24" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="304" t="s">
         <v>19</v>
       </c>
@@ -8978,7 +8978,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="19.5" customHeight="1">
+    <row r="25" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="305" t="s">
         <v>53</v>
       </c>
@@ -9017,7 +9017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="19.5" customHeight="1">
+    <row r="26" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="305" t="s">
         <v>118</v>
       </c>
@@ -9056,7 +9056,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="19.5" customHeight="1">
+    <row r="27" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="305" t="s">
         <v>20</v>
       </c>
@@ -9095,7 +9095,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="19.5" customHeight="1">
+    <row r="28" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="305" t="s">
         <v>119</v>
       </c>
@@ -9134,7 +9134,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="19.5" customHeight="1">
+    <row r="29" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="305" t="s">
         <v>54</v>
       </c>
@@ -9173,7 +9173,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="19.5" customHeight="1">
+    <row r="30" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="305" t="s">
         <v>21</v>
       </c>
@@ -9212,7 +9212,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="19.5" customHeight="1">
+    <row r="31" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="305" t="s">
         <v>395</v>
       </c>
@@ -9249,7 +9249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="19.5" customHeight="1">
+    <row r="32" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="305" t="s">
         <v>55</v>
       </c>
@@ -9290,7 +9290,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="19.5" customHeight="1">
+    <row r="33" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="306" t="s">
         <v>367</v>
       </c>
@@ -9329,7 +9329,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:15" s="122" customFormat="1" ht="19.5" customHeight="1">
+    <row r="34" spans="1:15" s="122" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="303" t="s">
         <v>22</v>
       </c>
@@ -9374,7 +9374,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="19.5" customHeight="1">
+    <row r="35" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="307" t="s">
         <v>56</v>
       </c>
@@ -9413,7 +9413,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:15" s="122" customFormat="1" ht="19.5" customHeight="1">
+    <row r="36" spans="1:15" s="122" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="303" t="s">
         <v>23</v>
       </c>
@@ -9458,7 +9458,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="19.5" customHeight="1">
+    <row r="37" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="304" t="s">
         <v>57</v>
       </c>
@@ -9497,7 +9497,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="19.5" customHeight="1">
+    <row r="38" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="305" t="s">
         <v>58</v>
       </c>
@@ -9536,7 +9536,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="19.5" customHeight="1">
+    <row r="39" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="306" t="s">
         <v>59</v>
       </c>
@@ -9575,7 +9575,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:15" s="122" customFormat="1" ht="19.5" customHeight="1">
+    <row r="40" spans="1:15" s="122" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="303" t="s">
         <v>24</v>
       </c>
@@ -9620,7 +9620,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="19.5" customHeight="1">
+    <row r="41" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="304" t="s">
         <v>120</v>
       </c>
@@ -9659,7 +9659,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="19.5" customHeight="1">
+    <row r="42" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="305" t="s">
         <v>121</v>
       </c>
@@ -9698,7 +9698,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="19.5" customHeight="1">
+    <row r="43" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="305" t="s">
         <v>140</v>
       </c>
@@ -9737,7 +9737,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="19.5" customHeight="1">
+    <row r="44" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="305" t="s">
         <v>60</v>
       </c>
@@ -9776,7 +9776,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="19.5" customHeight="1">
+    <row r="45" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="306" t="s">
         <v>61</v>
       </c>
@@ -9815,7 +9815,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="46" spans="1:15" s="122" customFormat="1" ht="19.5" customHeight="1">
+    <row r="46" spans="1:15" s="122" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="303" t="s">
         <v>25</v>
       </c>
@@ -9860,7 +9860,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="19.5" customHeight="1">
+    <row r="47" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="304" t="s">
         <v>26</v>
       </c>
@@ -9899,7 +9899,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="19.5" customHeight="1">
+    <row r="48" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="305" t="s">
         <v>139</v>
       </c>
@@ -9938,7 +9938,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="19.5" customHeight="1">
+    <row r="49" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="305" t="s">
         <v>27</v>
       </c>
@@ -9977,7 +9977,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="19.5" customHeight="1">
+    <row r="50" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="305" t="s">
         <v>62</v>
       </c>
@@ -10016,7 +10016,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="19.5" customHeight="1">
+    <row r="51" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="305" t="s">
         <v>122</v>
       </c>
@@ -10055,7 +10055,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="19.5" customHeight="1">
+    <row r="52" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="305" t="s">
         <v>123</v>
       </c>
@@ -10094,7 +10094,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="19.5" customHeight="1">
+    <row r="53" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="305" t="s">
         <v>63</v>
       </c>
@@ -10133,7 +10133,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="19.5" customHeight="1">
+    <row r="54" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="305" t="s">
         <v>28</v>
       </c>
@@ -10172,7 +10172,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="19.5" customHeight="1">
+    <row r="55" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="305" t="s">
         <v>29</v>
       </c>
@@ -10211,7 +10211,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="19.5" customHeight="1">
+    <row r="56" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="306" t="s">
         <v>30</v>
       </c>
@@ -10322,17 +10322,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr syncVertical="1" syncRef="B14" transitionEvaluation="1" codeName="Sheet3"/>
+  <sheetPr syncVertical="1" syncRef="R47" transitionEvaluation="1" codeName="Sheet3"/>
   <dimension ref="A1:AV207"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScaleNormal="125" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="R47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="AH1" sqref="AH1"/>
+      <selection pane="bottomRight" activeCell="AE55" sqref="AE55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.59765625" style="213" bestFit="1" customWidth="1"/>
     <col min="2" max="30" width="4.19921875" style="114" customWidth="1"/>
@@ -10345,7 +10345,7 @@
     <col min="52" max="16384" width="10.69921875" style="114"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" ht="17.25" customHeight="1">
+    <row r="1" spans="1:43" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="619" t="s">
         <v>459</v>
       </c>
@@ -10383,7 +10383,7 @@
       <c r="AM1" s="126"/>
       <c r="AN1" s="126"/>
     </row>
-    <row r="2" spans="1:43" ht="17.25" customHeight="1">
+    <row r="2" spans="1:43" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="199"/>
       <c r="B2" s="126"/>
       <c r="C2" s="126"/>
@@ -10429,7 +10429,7 @@
       <c r="AO2" s="629"/>
       <c r="AP2" s="629"/>
     </row>
-    <row r="3" spans="1:43" ht="27.75" customHeight="1">
+    <row r="3" spans="1:43" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="620" t="s">
         <v>1</v>
       </c>
@@ -10487,7 +10487,7 @@
       <c r="AO3" s="623"/>
       <c r="AP3" s="624"/>
     </row>
-    <row r="4" spans="1:43" ht="30" customHeight="1" thickBot="1">
+    <row r="4" spans="1:43" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="621"/>
       <c r="B4" s="414" t="s">
         <v>98</v>
@@ -10612,7 +10612,7 @@
       </c>
       <c r="AQ4" s="115"/>
     </row>
-    <row r="5" spans="1:43" ht="18" customHeight="1" thickTop="1" thickBot="1">
+    <row r="5" spans="1:43" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="309" t="s">
         <v>163</v>
       </c>
@@ -10737,7 +10737,7 @@
         <v>37171</v>
       </c>
     </row>
-    <row r="6" spans="1:43" s="122" customFormat="1" ht="18" customHeight="1" thickTop="1" thickBot="1">
+    <row r="6" spans="1:43" s="122" customFormat="1" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="310" t="s">
         <v>146</v>
       </c>
@@ -10826,10 +10826,10 @@
         <v>225</v>
       </c>
       <c r="AD6" s="68">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AE6" s="68">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AF6" s="70">
         <v>142</v>
@@ -10863,7 +10863,7 @@
         <v>36795</v>
       </c>
     </row>
-    <row r="7" spans="1:43" s="122" customFormat="1" ht="18" customHeight="1" thickTop="1">
+    <row r="7" spans="1:43" s="122" customFormat="1" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A7" s="311" t="s">
         <v>147</v>
       </c>
@@ -10989,7 +10989,7 @@
         <v>5483</v>
       </c>
     </row>
-    <row r="8" spans="1:43" ht="18" customHeight="1">
+    <row r="8" spans="1:43" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="312" t="s">
         <v>242</v>
       </c>
@@ -11103,7 +11103,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="9" spans="1:43" ht="18" customHeight="1">
+    <row r="9" spans="1:43" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="313" t="s">
         <v>165</v>
       </c>
@@ -11215,7 +11215,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="10" spans="1:43" ht="18" customHeight="1">
+    <row r="10" spans="1:43" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="313" t="s">
         <v>167</v>
       </c>
@@ -11329,7 +11329,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="11" spans="1:43" ht="18" customHeight="1">
+    <row r="11" spans="1:43" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="313" t="s">
         <v>243</v>
       </c>
@@ -11439,7 +11439,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="12" spans="1:43" ht="18" customHeight="1">
+    <row r="12" spans="1:43" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="313" t="s">
         <v>166</v>
       </c>
@@ -11551,7 +11551,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="13" spans="1:43" ht="18" customHeight="1">
+    <row r="13" spans="1:43" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="313" t="s">
         <v>244</v>
       </c>
@@ -11663,7 +11663,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="14" spans="1:43" ht="18" customHeight="1">
+    <row r="14" spans="1:43" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="313" t="s">
         <v>245</v>
       </c>
@@ -11773,7 +11773,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="15" spans="1:43" ht="18" customHeight="1">
+    <row r="15" spans="1:43" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="313" t="s">
         <v>246</v>
       </c>
@@ -11885,7 +11885,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="16" spans="1:43" ht="18" customHeight="1">
+    <row r="16" spans="1:43" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="313" t="s">
         <v>169</v>
       </c>
@@ -11997,7 +11997,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="17" spans="1:42" ht="18" customHeight="1">
+    <row r="17" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="313" t="s">
         <v>170</v>
       </c>
@@ -12109,7 +12109,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="18" spans="1:42" ht="18" customHeight="1">
+    <row r="18" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="313" t="s">
         <v>247</v>
       </c>
@@ -12221,7 +12221,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="19" spans="1:42" ht="18" customHeight="1">
+    <row r="19" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="313" t="s">
         <v>248</v>
       </c>
@@ -12333,7 +12333,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="20" spans="1:42" ht="18" customHeight="1">
+    <row r="20" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="313" t="s">
         <v>9</v>
       </c>
@@ -12445,7 +12445,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="21" spans="1:42" ht="18" customHeight="1">
+    <row r="21" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="314" t="s">
         <v>171</v>
       </c>
@@ -12557,7 +12557,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="22" spans="1:42" s="122" customFormat="1" ht="18" customHeight="1">
+    <row r="22" spans="1:42" s="122" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="311" t="s">
         <v>148</v>
       </c>
@@ -12683,7 +12683,7 @@
         <v>3012</v>
       </c>
     </row>
-    <row r="23" spans="1:42" ht="18" customHeight="1">
+    <row r="23" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="312" t="s">
         <v>249</v>
       </c>
@@ -12791,7 +12791,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="24" spans="1:42" ht="18" customHeight="1">
+    <row r="24" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="313" t="s">
         <v>250</v>
       </c>
@@ -12903,7 +12903,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="25" spans="1:42" ht="18" customHeight="1">
+    <row r="25" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="313" t="s">
         <v>251</v>
       </c>
@@ -13015,7 +13015,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="26" spans="1:42" ht="18" customHeight="1">
+    <row r="26" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="313" t="s">
         <v>252</v>
       </c>
@@ -13125,7 +13125,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:42" ht="18" customHeight="1">
+    <row r="27" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="313" t="s">
         <v>253</v>
       </c>
@@ -13233,7 +13233,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="28" spans="1:42" ht="18" customHeight="1">
+    <row r="28" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="313" t="s">
         <v>254</v>
       </c>
@@ -13345,7 +13345,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="29" spans="1:42" ht="18" customHeight="1">
+    <row r="29" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="313" t="s">
         <v>255</v>
       </c>
@@ -13457,7 +13457,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="30" spans="1:42" ht="18" customHeight="1">
+    <row r="30" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="313" t="s">
         <v>256</v>
       </c>
@@ -13569,7 +13569,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="31" spans="1:42" ht="18" customHeight="1">
+    <row r="31" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="313" t="s">
         <v>257</v>
       </c>
@@ -13681,7 +13681,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="32" spans="1:42" ht="18" customHeight="1">
+    <row r="32" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="313" t="s">
         <v>258</v>
       </c>
@@ -13789,7 +13789,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="33" spans="1:42" ht="18" customHeight="1">
+    <row r="33" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="313" t="s">
         <v>259</v>
       </c>
@@ -13899,7 +13899,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="34" spans="1:42" ht="18" customHeight="1">
+    <row r="34" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="314" t="s">
         <v>260</v>
       </c>
@@ -14011,7 +14011,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="35" spans="1:42" s="122" customFormat="1" ht="18" customHeight="1">
+    <row r="35" spans="1:42" s="122" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="311" t="s">
         <v>149</v>
       </c>
@@ -14137,7 +14137,7 @@
         <v>2204</v>
       </c>
     </row>
-    <row r="36" spans="1:42" ht="18" customHeight="1">
+    <row r="36" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="312" t="s">
         <v>261</v>
       </c>
@@ -14249,7 +14249,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="37" spans="1:42" ht="18" customHeight="1">
+    <row r="37" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="313" t="s">
         <v>262</v>
       </c>
@@ -14361,7 +14361,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="38" spans="1:42" ht="18" customHeight="1">
+    <row r="38" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="313" t="s">
         <v>263</v>
       </c>
@@ -14471,7 +14471,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="39" spans="1:42" ht="18" customHeight="1">
+    <row r="39" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="313" t="s">
         <v>264</v>
       </c>
@@ -14581,7 +14581,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="40" spans="1:42" ht="18" customHeight="1">
+    <row r="40" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="313" t="s">
         <v>265</v>
       </c>
@@ -14695,7 +14695,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="41" spans="1:42" ht="18" customHeight="1">
+    <row r="41" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="313" t="s">
         <v>266</v>
       </c>
@@ -14809,7 +14809,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="42" spans="1:42" ht="18" customHeight="1">
+    <row r="42" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="313" t="s">
         <v>267</v>
       </c>
@@ -14921,7 +14921,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="43" spans="1:42" ht="18" customHeight="1">
+    <row r="43" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="313" t="s">
         <v>268</v>
       </c>
@@ -15033,7 +15033,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="44" spans="1:42" ht="18" customHeight="1">
+    <row r="44" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="314" t="s">
         <v>269</v>
       </c>
@@ -15145,7 +15145,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="45" spans="1:42" s="122" customFormat="1" ht="18" customHeight="1">
+    <row r="45" spans="1:42" s="122" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="311" t="s">
         <v>150</v>
       </c>
@@ -15271,7 +15271,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="46" spans="1:42" ht="18" customHeight="1">
+    <row r="46" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="315" t="s">
         <v>392</v>
       </c>
@@ -15385,7 +15385,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="47" spans="1:42" ht="18" customHeight="1">
+    <row r="47" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="313" t="s">
         <v>364</v>
       </c>
@@ -15499,7 +15499,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="48" spans="1:42" ht="18" customHeight="1">
+    <row r="48" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="313" t="s">
         <v>270</v>
       </c>
@@ -15613,7 +15613,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="49" spans="1:42" ht="18" customHeight="1">
+    <row r="49" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="313" t="s">
         <v>271</v>
       </c>
@@ -15725,7 +15725,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="50" spans="1:42" ht="18" customHeight="1">
+    <row r="50" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="313" t="s">
         <v>272</v>
       </c>
@@ -15835,7 +15835,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="51" spans="1:42" ht="18" customHeight="1">
+    <row r="51" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="313" t="s">
         <v>273</v>
       </c>
@@ -15947,7 +15947,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="52" spans="1:42" ht="18" customHeight="1">
+    <row r="52" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="313" t="s">
         <v>274</v>
       </c>
@@ -16059,7 +16059,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="53" spans="1:42" ht="18" customHeight="1">
+    <row r="53" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="314" t="s">
         <v>275</v>
       </c>
@@ -16167,7 +16167,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="54" spans="1:42" s="122" customFormat="1" ht="18" customHeight="1">
+    <row r="54" spans="1:42" s="122" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="311" t="s">
         <v>151</v>
       </c>
@@ -16256,10 +16256,10 @@
         <v>32</v>
       </c>
       <c r="AD54" s="73">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AE54" s="73">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AF54" s="74">
         <v>90</v>
@@ -16293,7 +16293,7 @@
         <v>6003</v>
       </c>
     </row>
-    <row r="55" spans="1:42" ht="18" customHeight="1">
+    <row r="55" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="312" t="s">
         <v>185</v>
       </c>
@@ -16419,7 +16419,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:42" ht="18" customHeight="1">
+    <row r="56" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="313" t="s">
         <v>186</v>
       </c>
@@ -16533,7 +16533,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="57" spans="1:42" ht="18" customHeight="1">
+    <row r="57" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="313" t="s">
         <v>276</v>
       </c>
@@ -16645,7 +16645,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="58" spans="1:42" ht="18" customHeight="1">
+    <row r="58" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="313" t="s">
         <v>277</v>
       </c>
@@ -16757,7 +16757,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="59" spans="1:42" ht="18" customHeight="1">
+    <row r="59" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="313" t="s">
         <v>278</v>
       </c>
@@ -16867,7 +16867,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="60" spans="1:42" ht="18" customHeight="1">
+    <row r="60" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="313" t="s">
         <v>279</v>
       </c>
@@ -16977,7 +16977,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="61" spans="1:42" ht="18" customHeight="1">
+    <row r="61" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="313" t="s">
         <v>187</v>
       </c>
@@ -17089,7 +17089,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="62" spans="1:42" ht="18" customHeight="1">
+    <row r="62" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="313" t="s">
         <v>188</v>
       </c>
@@ -17203,7 +17203,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="63" spans="1:42" ht="18" customHeight="1">
+    <row r="63" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="313" t="s">
         <v>280</v>
       </c>
@@ -17315,7 +17315,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="64" spans="1:42" ht="18" customHeight="1">
+    <row r="64" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="313" t="s">
         <v>281</v>
       </c>
@@ -17423,7 +17423,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="65" spans="1:42" ht="18" customHeight="1">
+    <row r="65" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="313" t="s">
         <v>282</v>
       </c>
@@ -17533,7 +17533,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="66" spans="1:42" ht="18" customHeight="1">
+    <row r="66" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="313" t="s">
         <v>283</v>
       </c>
@@ -17643,7 +17643,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="67" spans="1:42" ht="18" customHeight="1">
+    <row r="67" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="313" t="s">
         <v>190</v>
       </c>
@@ -17755,7 +17755,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="68" spans="1:42" ht="18" customHeight="1">
+    <row r="68" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="313" t="s">
         <v>284</v>
       </c>
@@ -17867,7 +17867,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="69" spans="1:42" ht="18" customHeight="1">
+    <row r="69" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="313" t="s">
         <v>191</v>
       </c>
@@ -17975,7 +17975,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="70" spans="1:42" ht="18" customHeight="1">
+    <row r="70" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="313" t="s">
         <v>285</v>
       </c>
@@ -18087,7 +18087,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="71" spans="1:42" ht="18" customHeight="1">
+    <row r="71" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="313" t="s">
         <v>189</v>
       </c>
@@ -18201,7 +18201,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="72" spans="1:42" ht="18" customHeight="1">
+    <row r="72" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="313" t="s">
         <v>286</v>
       </c>
@@ -18313,7 +18313,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="73" spans="1:42" ht="18" customHeight="1">
+    <row r="73" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="313" t="s">
         <v>192</v>
       </c>
@@ -18425,7 +18425,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="74" spans="1:42" ht="18" customHeight="1">
+    <row r="74" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="313" t="s">
         <v>287</v>
       </c>
@@ -18537,7 +18537,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="75" spans="1:42" ht="18" customHeight="1">
+    <row r="75" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="313" t="s">
         <v>194</v>
       </c>
@@ -18647,7 +18647,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="76" spans="1:42" ht="18" customHeight="1">
+    <row r="76" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="313" t="s">
         <v>288</v>
       </c>
@@ -18759,7 +18759,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="77" spans="1:42" ht="18" customHeight="1">
+    <row r="77" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="313" t="s">
         <v>289</v>
       </c>
@@ -18871,7 +18871,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="78" spans="1:42" ht="18" customHeight="1">
+    <row r="78" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="313" t="s">
         <v>290</v>
       </c>
@@ -18983,7 +18983,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="79" spans="1:42" ht="18" customHeight="1">
+    <row r="79" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="313" t="s">
         <v>195</v>
       </c>
@@ -19091,7 +19091,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="80" spans="1:42" ht="18" customHeight="1">
+    <row r="80" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="313" t="s">
         <v>10</v>
       </c>
@@ -19203,7 +19203,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="81" spans="1:42" ht="18" customHeight="1">
+    <row r="81" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="313" t="s">
         <v>291</v>
       </c>
@@ -19329,7 +19329,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="82" spans="1:42" ht="18" customHeight="1">
+    <row r="82" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="313" t="s">
         <v>292</v>
       </c>
@@ -19441,7 +19441,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="83" spans="1:42" ht="18" customHeight="1">
+    <row r="83" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="313" t="s">
         <v>198</v>
       </c>
@@ -19551,7 +19551,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="84" spans="1:42" ht="18" customHeight="1">
+    <row r="84" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="313" t="s">
         <v>199</v>
       </c>
@@ -19669,7 +19669,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="85" spans="1:42" ht="18" customHeight="1">
+    <row r="85" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="313" t="s">
         <v>293</v>
       </c>
@@ -19783,7 +19783,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="86" spans="1:42" ht="18" customHeight="1">
+    <row r="86" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="313" t="s">
         <v>294</v>
       </c>
@@ -19897,7 +19897,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="87" spans="1:42" ht="18" customHeight="1">
+    <row r="87" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="313" t="s">
         <v>295</v>
       </c>
@@ -20013,7 +20013,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="88" spans="1:42" ht="18" customHeight="1">
+    <row r="88" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="314" t="s">
         <v>200</v>
       </c>
@@ -20135,7 +20135,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="89" spans="1:42" s="122" customFormat="1" ht="18" customHeight="1">
+    <row r="89" spans="1:42" s="122" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="311" t="s">
         <v>152</v>
       </c>
@@ -20261,7 +20261,7 @@
         <v>1756</v>
       </c>
     </row>
-    <row r="90" spans="1:42" ht="18" customHeight="1">
+    <row r="90" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="312" t="s">
         <v>296</v>
       </c>
@@ -20387,7 +20387,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:42" ht="18" customHeight="1">
+    <row r="91" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="313" t="s">
         <v>297</v>
       </c>
@@ -20509,7 +20509,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="92" spans="1:42" ht="18" customHeight="1">
+    <row r="92" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="313" t="s">
         <v>396</v>
       </c>
@@ -20633,7 +20633,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="93" spans="1:42" ht="18" customHeight="1">
+    <row r="93" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="313" t="s">
         <v>298</v>
       </c>
@@ -20757,7 +20757,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="94" spans="1:42" ht="18" customHeight="1">
+    <row r="94" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="313" t="s">
         <v>299</v>
       </c>
@@ -20879,7 +20879,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="95" spans="1:42" ht="18" customHeight="1">
+    <row r="95" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="313" t="s">
         <v>300</v>
       </c>
@@ -21001,7 +21001,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="96" spans="1:42" ht="18" customHeight="1">
+    <row r="96" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="313" t="s">
         <v>205</v>
       </c>
@@ -21123,7 +21123,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="97" spans="1:42" ht="18" customHeight="1">
+    <row r="97" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="313" t="s">
         <v>301</v>
       </c>
@@ -21249,7 +21249,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="98" spans="1:42" ht="18" customHeight="1">
+    <row r="98" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="313" t="s">
         <v>302</v>
       </c>
@@ -21375,7 +21375,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="99" spans="1:42" ht="18" customHeight="1">
+    <row r="99" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="313" t="s">
         <v>303</v>
       </c>
@@ -21499,7 +21499,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="100" spans="1:42" ht="18" customHeight="1">
+    <row r="100" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="313" t="s">
         <v>304</v>
       </c>
@@ -21621,7 +21621,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="101" spans="1:42" ht="18" customHeight="1">
+    <row r="101" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="313" t="s">
         <v>305</v>
       </c>
@@ -21743,7 +21743,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="102" spans="1:42" ht="18" customHeight="1">
+    <row r="102" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="314" t="s">
         <v>306</v>
       </c>
@@ -21865,7 +21865,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="103" spans="1:42" s="122" customFormat="1" ht="18" customHeight="1">
+    <row r="103" spans="1:42" s="122" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="311" t="s">
         <v>153</v>
       </c>
@@ -21991,7 +21991,7 @@
         <v>3836</v>
       </c>
     </row>
-    <row r="104" spans="1:42" ht="18" customHeight="1">
+    <row r="104" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="312" t="s">
         <v>307</v>
       </c>
@@ -22115,7 +22115,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="105" spans="1:42" ht="18" customHeight="1">
+    <row r="105" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="313" t="s">
         <v>308</v>
       </c>
@@ -22239,7 +22239,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="106" spans="1:42" ht="18" customHeight="1">
+    <row r="106" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="313" t="s">
         <v>309</v>
       </c>
@@ -22365,7 +22365,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="107" spans="1:42" ht="18" customHeight="1">
+    <row r="107" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="313" t="s">
         <v>310</v>
       </c>
@@ -22491,7 +22491,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="108" spans="1:42" ht="18" customHeight="1">
+    <row r="108" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="313" t="s">
         <v>311</v>
       </c>
@@ -22615,7 +22615,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="109" spans="1:42" ht="18" customHeight="1">
+    <row r="109" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="313" t="s">
         <v>312</v>
       </c>
@@ -22739,7 +22739,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:42" ht="18" customHeight="1">
+    <row r="110" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="313" t="s">
         <v>313</v>
       </c>
@@ -22861,7 +22861,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="111" spans="1:42" ht="18" customHeight="1">
+    <row r="111" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="313" t="s">
         <v>314</v>
       </c>
@@ -22985,7 +22985,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="112" spans="1:42" ht="18" customHeight="1">
+    <row r="112" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="313" t="s">
         <v>315</v>
       </c>
@@ -23109,7 +23109,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="113" spans="1:42" ht="18" customHeight="1">
+    <row r="113" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="313" t="s">
         <v>316</v>
       </c>
@@ -23235,7 +23235,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="114" spans="1:42" ht="18" customHeight="1">
+    <row r="114" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="313" t="s">
         <v>211</v>
       </c>
@@ -23347,7 +23347,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="115" spans="1:42" ht="18" customHeight="1">
+    <row r="115" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="313" t="s">
         <v>317</v>
       </c>
@@ -23459,7 +23459,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="116" spans="1:42" ht="18" customHeight="1">
+    <row r="116" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="313" t="s">
         <v>318</v>
       </c>
@@ -23569,7 +23569,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="117" spans="1:42" ht="18" customHeight="1">
+    <row r="117" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="313" t="s">
         <v>319</v>
       </c>
@@ -23681,7 +23681,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="118" spans="1:42" ht="18" customHeight="1">
+    <row r="118" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="313" t="s">
         <v>213</v>
       </c>
@@ -23789,7 +23789,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="119" spans="1:42" ht="18" customHeight="1">
+    <row r="119" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="313" t="s">
         <v>320</v>
       </c>
@@ -23901,7 +23901,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="120" spans="1:42" ht="18" customHeight="1">
+    <row r="120" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="313" t="s">
         <v>321</v>
       </c>
@@ -24011,7 +24011,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="121" spans="1:42" ht="18" customHeight="1">
+    <row r="121" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="313" t="s">
         <v>216</v>
       </c>
@@ -24121,7 +24121,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="122" spans="1:42" ht="18" customHeight="1">
+    <row r="122" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="313" t="s">
         <v>217</v>
       </c>
@@ -24233,7 +24233,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="123" spans="1:42" ht="18" customHeight="1">
+    <row r="123" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="314" t="s">
         <v>322</v>
       </c>
@@ -24343,7 +24343,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="124" spans="1:42" s="122" customFormat="1" ht="18" customHeight="1">
+    <row r="124" spans="1:42" s="122" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="311" t="s">
         <v>154</v>
       </c>
@@ -24469,7 +24469,7 @@
         <v>5656</v>
       </c>
     </row>
-    <row r="125" spans="1:42" ht="18" customHeight="1">
+    <row r="125" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="312" t="s">
         <v>323</v>
       </c>
@@ -24579,7 +24579,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="126" spans="1:42" ht="18" customHeight="1">
+    <row r="126" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="313" t="s">
         <v>324</v>
       </c>
@@ -24693,7 +24693,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="127" spans="1:42" ht="18" customHeight="1">
+    <row r="127" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="313" t="s">
         <v>11</v>
       </c>
@@ -24803,7 +24803,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="128" spans="1:42" ht="18" customHeight="1">
+    <row r="128" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="313" t="s">
         <v>219</v>
       </c>
@@ -24915,7 +24915,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="129" spans="1:42" ht="18" customHeight="1">
+    <row r="129" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="313" t="s">
         <v>325</v>
       </c>
@@ -25029,7 +25029,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="130" spans="1:42" ht="18" customHeight="1">
+    <row r="130" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="313" t="s">
         <v>326</v>
       </c>
@@ -25139,7 +25139,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="131" spans="1:42" ht="18" customHeight="1">
+    <row r="131" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="313" t="s">
         <v>327</v>
       </c>
@@ -25251,7 +25251,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="132" spans="1:42" ht="18" customHeight="1">
+    <row r="132" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="313" t="s">
         <v>221</v>
       </c>
@@ -25363,7 +25363,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="133" spans="1:42" ht="18" customHeight="1">
+    <row r="133" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="313" t="s">
         <v>328</v>
       </c>
@@ -25475,7 +25475,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="134" spans="1:42" ht="18" customHeight="1">
+    <row r="134" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="313" t="s">
         <v>329</v>
       </c>
@@ -25585,7 +25585,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="135" spans="1:42" ht="18" customHeight="1">
+    <row r="135" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="313" t="s">
         <v>330</v>
       </c>
@@ -25695,7 +25695,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="136" spans="1:42" ht="18" customHeight="1">
+    <row r="136" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="313" t="s">
         <v>222</v>
       </c>
@@ -25807,7 +25807,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="137" spans="1:42" ht="18" customHeight="1">
+    <row r="137" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="313" t="s">
         <v>331</v>
       </c>
@@ -25921,7 +25921,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="138" spans="1:42" ht="18" customHeight="1">
+    <row r="138" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="313" t="s">
         <v>332</v>
       </c>
@@ -26033,7 +26033,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="139" spans="1:42" ht="18" customHeight="1">
+    <row r="139" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="313" t="s">
         <v>227</v>
       </c>
@@ -26147,7 +26147,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="140" spans="1:42" ht="18" customHeight="1">
+    <row r="140" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="313" t="s">
         <v>333</v>
       </c>
@@ -26257,7 +26257,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="141" spans="1:42" ht="18" customHeight="1">
+    <row r="141" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="313" t="s">
         <v>334</v>
       </c>
@@ -26367,7 +26367,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="142" spans="1:42" ht="18" customHeight="1">
+    <row r="142" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="313" t="s">
         <v>335</v>
       </c>
@@ -26479,7 +26479,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="143" spans="1:42" ht="18" customHeight="1">
+    <row r="143" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="313" t="s">
         <v>225</v>
       </c>
@@ -26589,7 +26589,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="144" spans="1:42" ht="18" customHeight="1">
+    <row r="144" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="313" t="s">
         <v>336</v>
       </c>
@@ -26699,7 +26699,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="145" spans="1:42" ht="18" customHeight="1">
+    <row r="145" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="313" t="s">
         <v>397</v>
       </c>
@@ -26807,7 +26807,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="146" spans="1:42" ht="18" customHeight="1">
+    <row r="146" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="313" t="s">
         <v>226</v>
       </c>
@@ -26919,7 +26919,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="147" spans="1:42" ht="18" customHeight="1">
+    <row r="147" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="313" t="s">
         <v>337</v>
       </c>
@@ -27029,7 +27029,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="148" spans="1:42" ht="18" customHeight="1">
+    <row r="148" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="314" t="s">
         <v>228</v>
       </c>
@@ -27139,7 +27139,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="149" spans="1:42" s="122" customFormat="1" ht="18" customHeight="1">
+    <row r="149" spans="1:42" s="122" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="311" t="s">
         <v>155</v>
       </c>
@@ -27265,7 +27265,7 @@
         <v>6867</v>
       </c>
     </row>
-    <row r="150" spans="1:42" ht="18" customHeight="1">
+    <row r="150" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="312" t="s">
         <v>338</v>
       </c>
@@ -27377,7 +27377,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="151" spans="1:42" ht="18" customHeight="1">
+    <row r="151" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="313" t="s">
         <v>339</v>
       </c>
@@ -27489,7 +27489,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="152" spans="1:42" ht="18" customHeight="1">
+    <row r="152" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="313" t="s">
         <v>230</v>
       </c>
@@ -27601,7 +27601,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="153" spans="1:42" ht="18" customHeight="1">
+    <row r="153" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="313" t="s">
         <v>340</v>
       </c>
@@ -27715,7 +27715,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="154" spans="1:42" ht="18" customHeight="1">
+    <row r="154" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="313" t="s">
         <v>229</v>
       </c>
@@ -27827,7 +27827,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="155" spans="1:42" ht="18" customHeight="1">
+    <row r="155" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="313" t="s">
         <v>341</v>
       </c>
@@ -27937,7 +27937,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="156" spans="1:42" ht="18" customHeight="1">
+    <row r="156" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="313" t="s">
         <v>391</v>
       </c>
@@ -28047,7 +28047,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="157" spans="1:42" ht="18" customHeight="1">
+    <row r="157" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="313" t="s">
         <v>342</v>
       </c>
@@ -28161,7 +28161,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="158" spans="1:42" ht="18" customHeight="1">
+    <row r="158" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="313" t="s">
         <v>232</v>
       </c>
@@ -28275,7 +28275,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="159" spans="1:42" ht="18" customHeight="1">
+    <row r="159" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="313" t="s">
         <v>233</v>
       </c>
@@ -28387,7 +28387,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="160" spans="1:42" ht="18" customHeight="1">
+    <row r="160" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="313" t="s">
         <v>343</v>
       </c>
@@ -28497,7 +28497,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="161" spans="1:42" ht="18" customHeight="1">
+    <row r="161" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="313" t="s">
         <v>344</v>
       </c>
@@ -28607,7 +28607,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="162" spans="1:42" ht="18" customHeight="1">
+    <row r="162" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="313" t="s">
         <v>345</v>
       </c>
@@ -28717,7 +28717,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="163" spans="1:42" ht="18" customHeight="1">
+    <row r="163" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="313" t="s">
         <v>346</v>
       </c>
@@ -28829,7 +28829,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="164" spans="1:42" ht="18" customHeight="1">
+    <row r="164" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="313" t="s">
         <v>347</v>
       </c>
@@ -28941,7 +28941,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="165" spans="1:42" ht="18" customHeight="1">
+    <row r="165" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="313" t="s">
         <v>234</v>
       </c>
@@ -29049,7 +29049,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="166" spans="1:42" ht="18" customHeight="1">
+    <row r="166" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="313" t="s">
         <v>235</v>
       </c>
@@ -29163,7 +29163,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="167" spans="1:42" ht="18" customHeight="1">
+    <row r="167" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="313" t="s">
         <v>348</v>
       </c>
@@ -29277,7 +29277,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="168" spans="1:42" ht="18" customHeight="1">
+    <row r="168" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="313" t="s">
         <v>349</v>
       </c>
@@ -29391,7 +29391,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="169" spans="1:42" ht="18" customHeight="1">
+    <row r="169" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="313" t="s">
         <v>350</v>
       </c>
@@ -29517,7 +29517,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="170" spans="1:42" ht="18" customHeight="1">
+    <row r="170" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="313" t="s">
         <v>351</v>
       </c>
@@ -29631,7 +29631,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="171" spans="1:42" ht="18" customHeight="1">
+    <row r="171" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="313" t="s">
         <v>352</v>
       </c>
@@ -29745,7 +29745,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="172" spans="1:42" ht="18" customHeight="1">
+    <row r="172" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="313" t="s">
         <v>353</v>
       </c>
@@ -29853,7 +29853,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="173" spans="1:42" ht="18" customHeight="1">
+    <row r="173" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="313" t="s">
         <v>354</v>
       </c>
@@ -29967,7 +29967,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="174" spans="1:42" ht="18" customHeight="1">
+    <row r="174" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="313" t="s">
         <v>355</v>
       </c>
@@ -30077,7 +30077,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="175" spans="1:42" ht="18" customHeight="1">
+    <row r="175" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="313" t="s">
         <v>356</v>
       </c>
@@ -30191,7 +30191,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="176" spans="1:42" ht="18" customHeight="1">
+    <row r="176" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="313" t="s">
         <v>238</v>
       </c>
@@ -30303,7 +30303,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="177" spans="1:48" ht="18" customHeight="1">
+    <row r="177" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="313" t="s">
         <v>240</v>
       </c>
@@ -30413,7 +30413,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="178" spans="1:48" ht="18" customHeight="1">
+    <row r="178" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="314" t="s">
         <v>241</v>
       </c>
@@ -30527,7 +30527,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="179" spans="1:48" ht="18" customHeight="1">
+    <row r="179" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="212"/>
       <c r="B179" s="96"/>
       <c r="C179" s="96"/>
@@ -30563,8 +30563,8 @@
       <c r="AN179" s="126"/>
       <c r="AO179" s="194"/>
     </row>
-    <row r="180" spans="1:48" ht="18" customHeight="1"/>
-    <row r="181" spans="1:48" ht="18" customHeight="1">
+    <row r="180" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="199"/>
       <c r="B181" s="126"/>
       <c r="C181" s="126"/>
@@ -30613,7 +30613,7 @@
       <c r="AU181" s="214"/>
       <c r="AV181" s="214"/>
     </row>
-    <row r="182" spans="1:48" ht="18" customHeight="1">
+    <row r="182" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="199"/>
       <c r="B182" s="126"/>
       <c r="C182" s="126"/>
@@ -30662,14 +30662,14 @@
       <c r="AU182" s="214"/>
       <c r="AV182" s="214"/>
     </row>
-    <row r="183" spans="1:48" s="196" customFormat="1" ht="18" customHeight="1">
+    <row r="183" spans="1:48" s="196" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AE183" s="195"/>
       <c r="AL183" s="195"/>
       <c r="AM183" s="195"/>
       <c r="AN183" s="195"/>
       <c r="AO183" s="195"/>
     </row>
-    <row r="184" spans="1:48" ht="18" customHeight="1">
+    <row r="184" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="120"/>
       <c r="B184" s="95"/>
       <c r="C184" s="95"/>
@@ -30692,7 +30692,7 @@
       <c r="T184" s="95"/>
       <c r="U184" s="95"/>
     </row>
-    <row r="185" spans="1:48" ht="18" customHeight="1">
+    <row r="185" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="120"/>
       <c r="B185" s="96"/>
       <c r="C185" s="96"/>
@@ -30715,8 +30715,8 @@
       <c r="T185" s="96"/>
       <c r="U185" s="96"/>
     </row>
-    <row r="186" spans="1:48" ht="18" customHeight="1"/>
-    <row r="187" spans="1:48" ht="18" customHeight="1">
+    <row r="186" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B187" s="95"/>
       <c r="C187" s="95"/>
       <c r="D187" s="95"/>
@@ -30759,7 +30759,7 @@
       <c r="AO187" s="197"/>
       <c r="AP187" s="95"/>
     </row>
-    <row r="188" spans="1:48" ht="18" customHeight="1">
+    <row r="188" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B188" s="96"/>
       <c r="C188" s="96"/>
       <c r="D188" s="96"/>
@@ -30788,10 +30788,10 @@
       <c r="AF188" s="96"/>
       <c r="AG188" s="96"/>
     </row>
-    <row r="189" spans="1:48" ht="18" customHeight="1"/>
-    <row r="190" spans="1:48" ht="18" customHeight="1"/>
-    <row r="191" spans="1:48" ht="18" customHeight="1"/>
-    <row r="192" spans="1:48" ht="18" customHeight="1">
+    <row r="189" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="114"/>
       <c r="B192" s="196"/>
       <c r="C192" s="196"/>
@@ -30811,21 +30811,21 @@
       <c r="Q192" s="196"/>
       <c r="R192" s="196"/>
     </row>
-    <row r="193" ht="18" customHeight="1"/>
-    <row r="194" ht="18" customHeight="1"/>
-    <row r="195" ht="18" customHeight="1"/>
-    <row r="196" ht="18" customHeight="1"/>
-    <row r="197" ht="18" customHeight="1"/>
-    <row r="198" ht="18" customHeight="1"/>
-    <row r="199" ht="18" customHeight="1"/>
-    <row r="200" ht="18" customHeight="1"/>
-    <row r="201" ht="18" customHeight="1"/>
-    <row r="202" ht="18" customHeight="1"/>
-    <row r="203" ht="18" customHeight="1"/>
-    <row r="204" ht="18" customHeight="1"/>
-    <row r="205" ht="18" customHeight="1"/>
-    <row r="206" ht="18" customHeight="1"/>
-    <row r="207" ht="18" customHeight="1"/>
+    <row r="193" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <customSheetViews>
     <customSheetView guid="{05D2C257-AD29-4844-8E74-F8EBF9492FCE}" scale="85" zeroValues="0" showRuler="0">
@@ -30895,9 +30895,11 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:V153"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="75" zoomScaleSheetLayoutView="70" workbookViewId="0"/>
+    <sheetView showZeros="0" view="pageBreakPreview" topLeftCell="A16" zoomScale="70" zoomScaleNormal="75" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="N29" sqref="N29"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.296875" style="567" customWidth="1"/>
     <col min="2" max="2" width="5.5" style="475" customWidth="1"/>
@@ -30914,7 +30916,7 @@
     <col min="24" max="16384" width="10.69921875" style="475"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="39.75" customHeight="1">
+    <row r="1" spans="1:22" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="474" t="s">
         <v>460</v>
       </c>
@@ -30922,7 +30924,7 @@
       <c r="S1" s="478"/>
       <c r="T1" s="478"/>
     </row>
-    <row r="2" spans="1:22" ht="23.25" customHeight="1">
+    <row r="2" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="480"/>
       <c r="B2" s="478"/>
       <c r="C2" s="478"/>
@@ -30942,7 +30944,7 @@
       <c r="U2" s="632"/>
       <c r="V2" s="632"/>
     </row>
-    <row r="3" spans="1:22" ht="23.25" customHeight="1">
+    <row r="3" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="630" t="s">
         <v>441</v>
       </c>
@@ -30977,7 +30979,7 @@
       <c r="U3" s="633"/>
       <c r="V3" s="633"/>
     </row>
-    <row r="4" spans="1:22" ht="30" customHeight="1" thickBot="1">
+    <row r="4" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="631"/>
       <c r="B4" s="481" t="s">
         <v>98</v>
@@ -31040,7 +31042,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:22" s="496" customFormat="1" ht="23.25" customHeight="1" thickTop="1" thickBot="1">
+    <row r="5" spans="1:22" s="496" customFormat="1" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="489" t="s">
         <v>389</v>
       </c>
@@ -31106,7 +31108,7 @@
         <v>17507</v>
       </c>
     </row>
-    <row r="6" spans="1:22" s="505" customFormat="1" ht="23.25" customHeight="1" thickTop="1" thickBot="1">
+    <row r="6" spans="1:22" s="505" customFormat="1" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="497" t="s">
         <v>12</v>
       </c>
@@ -31138,16 +31140,16 @@
         <v>11854</v>
       </c>
       <c r="K6" s="502">
-        <v>34983</v>
+        <v>34985</v>
       </c>
       <c r="L6" s="499">
-        <v>11521</v>
+        <v>11513</v>
       </c>
       <c r="M6" s="499">
-        <v>11824</v>
+        <v>11793</v>
       </c>
       <c r="N6" s="500">
-        <v>11638</v>
+        <v>11679</v>
       </c>
       <c r="O6" s="501">
         <v>455</v>
@@ -31172,7 +31174,7 @@
         <v>17082</v>
       </c>
     </row>
-    <row r="7" spans="1:22" s="505" customFormat="1" ht="23.25" customHeight="1" thickTop="1">
+    <row r="7" spans="1:22" s="505" customFormat="1" ht="23.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A7" s="506" t="s">
         <v>99</v>
       </c>
@@ -31238,7 +31240,7 @@
         <v>2338</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="23.25" customHeight="1">
+    <row r="8" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="515" t="s">
         <v>165</v>
       </c>
@@ -31304,7 +31306,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="23.25" customHeight="1">
+    <row r="9" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="526" t="s">
         <v>166</v>
       </c>
@@ -31370,7 +31372,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="23.25" customHeight="1">
+    <row r="10" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="526" t="s">
         <v>167</v>
       </c>
@@ -31434,7 +31436,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="23.25" customHeight="1">
+    <row r="11" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="526" t="s">
         <v>168</v>
       </c>
@@ -31500,7 +31502,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="23.25" customHeight="1">
+    <row r="12" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="526" t="s">
         <v>169</v>
       </c>
@@ -31564,7 +31566,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="23.25" customHeight="1">
+    <row r="13" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="526" t="s">
         <v>170</v>
       </c>
@@ -31630,7 +31632,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="23.25" customHeight="1">
+    <row r="14" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="538" t="s">
         <v>171</v>
       </c>
@@ -31694,7 +31696,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="15" spans="1:22" s="505" customFormat="1" ht="23.25" customHeight="1">
+    <row r="15" spans="1:22" s="505" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="506" t="s">
         <v>138</v>
       </c>
@@ -31760,7 +31762,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="23.25" customHeight="1">
+    <row r="16" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="515" t="s">
         <v>172</v>
       </c>
@@ -31826,7 +31828,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="17" spans="1:22" ht="23.25" customHeight="1">
+    <row r="17" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="526" t="s">
         <v>173</v>
       </c>
@@ -31890,7 +31892,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="18" spans="1:22" ht="23.25" customHeight="1">
+    <row r="18" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="526" t="s">
         <v>174</v>
       </c>
@@ -31956,7 +31958,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="19" spans="1:22" ht="23.25" customHeight="1">
+    <row r="19" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="526" t="s">
         <v>175</v>
       </c>
@@ -32022,7 +32024,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="20" spans="1:22" ht="23.25" customHeight="1">
+    <row r="20" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="538" t="s">
         <v>176</v>
       </c>
@@ -32088,7 +32090,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="21" spans="1:22" s="496" customFormat="1" ht="23.25" customHeight="1">
+    <row r="21" spans="1:22" s="496" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="561" t="s">
         <v>15</v>
       </c>
@@ -32154,7 +32156,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="22" spans="1:22" ht="23.25" customHeight="1">
+    <row r="22" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="515" t="s">
         <v>177</v>
       </c>
@@ -32218,7 +32220,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="23" spans="1:22" ht="23.25" customHeight="1">
+    <row r="23" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="526" t="s">
         <v>100</v>
       </c>
@@ -32284,7 +32286,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="24" spans="1:22" ht="23.25" customHeight="1">
+    <row r="24" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="526" t="s">
         <v>178</v>
       </c>
@@ -32350,7 +32352,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="25" spans="1:22" ht="23.25" customHeight="1">
+    <row r="25" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="526" t="s">
         <v>179</v>
       </c>
@@ -32414,7 +32416,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="26" spans="1:22" ht="23.25" customHeight="1">
+    <row r="26" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="526" t="s">
         <v>16</v>
       </c>
@@ -32480,7 +32482,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="1:22" ht="23.25" customHeight="1">
+    <row r="27" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="538" t="s">
         <v>387</v>
       </c>
@@ -32546,7 +32548,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="28" spans="1:22" s="496" customFormat="1" ht="23.25" customHeight="1">
+    <row r="28" spans="1:22" s="496" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="561" t="s">
         <v>17</v>
       </c>
@@ -32578,16 +32580,16 @@
         <v>619</v>
       </c>
       <c r="K28" s="509">
-        <v>1754</v>
+        <v>1756</v>
       </c>
       <c r="L28" s="508">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="M28" s="508">
-        <v>611</v>
+        <v>580</v>
       </c>
       <c r="N28" s="562">
-        <v>567</v>
+        <v>608</v>
       </c>
       <c r="O28" s="509">
         <v>26</v>
@@ -32612,7 +32614,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="29" spans="1:22" ht="23.25" customHeight="1">
+    <row r="29" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="515" t="s">
         <v>180</v>
       </c>
@@ -32678,7 +32680,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="30" spans="1:22" ht="23.25" customHeight="1">
+    <row r="30" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="526" t="s">
         <v>181</v>
       </c>
@@ -32744,7 +32746,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="31" spans="1:22" ht="23.25" customHeight="1">
+    <row r="31" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="526" t="s">
         <v>182</v>
       </c>
@@ -32810,7 +32812,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="32" spans="1:22" ht="23.25" customHeight="1">
+    <row r="32" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="526" t="s">
         <v>468</v>
       </c>
@@ -32868,7 +32870,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="23.25" customHeight="1">
+    <row r="33" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="526" t="s">
         <v>183</v>
       </c>
@@ -32932,7 +32934,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="23.25" customHeight="1">
+    <row r="34" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="538" t="s">
         <v>184</v>
       </c>
@@ -32998,7 +33000,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="35" spans="1:22" s="505" customFormat="1" ht="23.25" customHeight="1">
+    <row r="35" spans="1:22" s="505" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="506" t="s">
         <v>18</v>
       </c>
@@ -33064,7 +33066,7 @@
         <v>2934</v>
       </c>
     </row>
-    <row r="36" spans="1:22" ht="23.25" customHeight="1">
+    <row r="36" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="515" t="s">
         <v>185</v>
       </c>
@@ -33128,7 +33130,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="23.25" customHeight="1">
+    <row r="37" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="526" t="s">
         <v>186</v>
       </c>
@@ -33194,7 +33196,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="38" spans="1:22" ht="23.25" customHeight="1">
+    <row r="38" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="526" t="s">
         <v>101</v>
       </c>
@@ -33260,7 +33262,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="39" spans="1:22" ht="23.25" customHeight="1">
+    <row r="39" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="526" t="s">
         <v>187</v>
       </c>
@@ -33324,7 +33326,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="40" spans="1:22" ht="23.25" customHeight="1">
+    <row r="40" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="526" t="s">
         <v>188</v>
       </c>
@@ -33386,7 +33388,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="41" spans="1:22" ht="23.25" customHeight="1">
+    <row r="41" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="526" t="s">
         <v>189</v>
       </c>
@@ -33450,7 +33452,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="42" spans="1:22" ht="23.25" customHeight="1">
+    <row r="42" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="526" t="s">
         <v>190</v>
       </c>
@@ -33516,7 +33518,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="43" spans="1:22" ht="23.25" customHeight="1">
+    <row r="43" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="526" t="s">
         <v>191</v>
       </c>
@@ -33580,7 +33582,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="23.25" customHeight="1">
+    <row r="44" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="526" t="s">
         <v>192</v>
       </c>
@@ -33646,7 +33648,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="45" spans="1:22" ht="23.25" customHeight="1">
+    <row r="45" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="526" t="s">
         <v>193</v>
       </c>
@@ -33712,7 +33714,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="46" spans="1:22" ht="23.25" customHeight="1">
+    <row r="46" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="526" t="s">
         <v>194</v>
       </c>
@@ -33776,7 +33778,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="47" spans="1:22" ht="23.25" customHeight="1">
+    <row r="47" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="526" t="s">
         <v>195</v>
       </c>
@@ -33842,7 +33844,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="48" spans="1:22" ht="23.25" customHeight="1">
+    <row r="48" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="526" t="s">
         <v>196</v>
       </c>
@@ -33908,7 +33910,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="49" spans="1:22" ht="23.25" customHeight="1">
+    <row r="49" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="526" t="s">
         <v>197</v>
       </c>
@@ -33974,7 +33976,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="50" spans="1:22" ht="23.25" customHeight="1">
+    <row r="50" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="526" t="s">
         <v>198</v>
       </c>
@@ -34038,7 +34040,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="51" spans="1:22" ht="23.25" customHeight="1">
+    <row r="51" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="526" t="s">
         <v>199</v>
       </c>
@@ -34102,7 +34104,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:22" ht="23.25" customHeight="1">
+    <row r="52" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="538" t="s">
         <v>200</v>
       </c>
@@ -34168,7 +34170,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="53" spans="1:22" s="505" customFormat="1" ht="23.25" customHeight="1">
+    <row r="53" spans="1:22" s="505" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="506" t="s">
         <v>22</v>
       </c>
@@ -34234,7 +34236,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="54" spans="1:22" ht="23.25" customHeight="1">
+    <row r="54" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="515" t="s">
         <v>201</v>
       </c>
@@ -34298,7 +34300,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="55" spans="1:22" ht="23.25" customHeight="1">
+    <row r="55" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="526" t="s">
         <v>202</v>
       </c>
@@ -34362,7 +34364,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="56" spans="1:22" ht="23.25" customHeight="1">
+    <row r="56" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="526" t="s">
         <v>469</v>
       </c>
@@ -34418,7 +34420,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:22" ht="23.25" customHeight="1">
+    <row r="57" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="526" t="s">
         <v>203</v>
       </c>
@@ -34484,7 +34486,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="58" spans="1:22" ht="23.25" customHeight="1">
+    <row r="58" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="526" t="s">
         <v>204</v>
       </c>
@@ -34548,7 +34550,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="59" spans="1:22" ht="23.25" customHeight="1">
+    <row r="59" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="526" t="s">
         <v>205</v>
       </c>
@@ -34612,7 +34614,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="60" spans="1:22" ht="23.25" customHeight="1">
+    <row r="60" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="538" t="s">
         <v>206</v>
       </c>
@@ -34676,7 +34678,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="61" spans="1:22" s="505" customFormat="1" ht="23.25" customHeight="1">
+    <row r="61" spans="1:22" s="505" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="506" t="s">
         <v>23</v>
       </c>
@@ -34742,7 +34744,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="62" spans="1:22" ht="23.25" customHeight="1">
+    <row r="62" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="515" t="s">
         <v>207</v>
       </c>
@@ -34806,7 +34808,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="63" spans="1:22" ht="23.25" customHeight="1">
+    <row r="63" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="526" t="s">
         <v>208</v>
       </c>
@@ -34872,7 +34874,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="64" spans="1:22" ht="23.25" customHeight="1">
+    <row r="64" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="526" t="s">
         <v>209</v>
       </c>
@@ -34936,7 +34938,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="65" spans="1:22" ht="23.25" customHeight="1">
+    <row r="65" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="526" t="s">
         <v>210</v>
       </c>
@@ -35000,7 +35002,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="66" spans="1:22" ht="23.25" customHeight="1">
+    <row r="66" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="526" t="s">
         <v>211</v>
       </c>
@@ -35064,7 +35066,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="67" spans="1:22" ht="23.25" customHeight="1">
+    <row r="67" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="526" t="s">
         <v>212</v>
       </c>
@@ -35130,7 +35132,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="68" spans="1:22" ht="23.25" customHeight="1">
+    <row r="68" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="526" t="s">
         <v>213</v>
       </c>
@@ -35194,7 +35196,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="69" spans="1:22" ht="23.25" customHeight="1">
+    <row r="69" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="526" t="s">
         <v>214</v>
       </c>
@@ -35258,7 +35260,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="70" spans="1:22" ht="23.25" customHeight="1">
+    <row r="70" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="526" t="s">
         <v>215</v>
       </c>
@@ -35322,7 +35324,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="71" spans="1:22" ht="23.25" customHeight="1">
+    <row r="71" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="526" t="s">
         <v>216</v>
       </c>
@@ -35386,7 +35388,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="72" spans="1:22" ht="23.25" customHeight="1">
+    <row r="72" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="538" t="s">
         <v>217</v>
       </c>
@@ -35452,7 +35454,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="73" spans="1:22" s="505" customFormat="1" ht="23.25" customHeight="1">
+    <row r="73" spans="1:22" s="505" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="506" t="s">
         <v>24</v>
       </c>
@@ -35518,7 +35520,7 @@
         <v>2555</v>
       </c>
     </row>
-    <row r="74" spans="1:22" ht="23.25" customHeight="1">
+    <row r="74" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="515" t="s">
         <v>218</v>
       </c>
@@ -35582,7 +35584,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="75" spans="1:22" ht="23.25" customHeight="1">
+    <row r="75" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="526" t="s">
         <v>219</v>
       </c>
@@ -35648,7 +35650,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="76" spans="1:22" ht="23.25" customHeight="1">
+    <row r="76" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="526" t="s">
         <v>220</v>
       </c>
@@ -35714,7 +35716,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="77" spans="1:22" ht="23.25" customHeight="1">
+    <row r="77" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="526" t="s">
         <v>221</v>
       </c>
@@ -35778,7 +35780,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="78" spans="1:22" ht="23.25" customHeight="1">
+    <row r="78" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="526" t="s">
         <v>222</v>
       </c>
@@ -35842,7 +35844,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="79" spans="1:22" ht="23.25" customHeight="1">
+    <row r="79" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="526" t="s">
         <v>223</v>
       </c>
@@ -35904,7 +35906,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="80" spans="1:22" ht="23.25" customHeight="1">
+    <row r="80" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="526" t="s">
         <v>224</v>
       </c>
@@ -35970,7 +35972,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="81" spans="1:22" ht="23.25" customHeight="1">
+    <row r="81" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="526" t="s">
         <v>225</v>
       </c>
@@ -36036,7 +36038,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="82" spans="1:22" ht="23.25" customHeight="1">
+    <row r="82" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="526" t="s">
         <v>226</v>
       </c>
@@ -36098,7 +36100,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="83" spans="1:22" ht="23.25" customHeight="1">
+    <row r="83" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="526" t="s">
         <v>227</v>
       </c>
@@ -36160,7 +36162,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="84" spans="1:22" ht="23.25" customHeight="1">
+    <row r="84" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="538" t="s">
         <v>228</v>
       </c>
@@ -36224,7 +36226,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="85" spans="1:22" s="496" customFormat="1" ht="23.25" customHeight="1">
+    <row r="85" spans="1:22" s="496" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="561" t="s">
         <v>25</v>
       </c>
@@ -36290,7 +36292,7 @@
         <v>3360</v>
       </c>
     </row>
-    <row r="86" spans="1:22" ht="23.25" customHeight="1">
+    <row r="86" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="515" t="s">
         <v>229</v>
       </c>
@@ -36356,7 +36358,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="87" spans="1:22" ht="23.25" customHeight="1">
+    <row r="87" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="526" t="s">
         <v>230</v>
       </c>
@@ -36422,7 +36424,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="88" spans="1:22" ht="23.25" customHeight="1">
+    <row r="88" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="526" t="s">
         <v>231</v>
       </c>
@@ -36486,7 +36488,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="89" spans="1:22" ht="23.25" customHeight="1">
+    <row r="89" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="526" t="s">
         <v>232</v>
       </c>
@@ -36552,7 +36554,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="90" spans="1:22" ht="23.25" customHeight="1">
+    <row r="90" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="526" t="s">
         <v>233</v>
       </c>
@@ -36614,7 +36616,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="91" spans="1:22" ht="23.25" customHeight="1">
+    <row r="91" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="526" t="s">
         <v>234</v>
       </c>
@@ -36680,7 +36682,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="92" spans="1:22" ht="23.25" customHeight="1">
+    <row r="92" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="526" t="s">
         <v>235</v>
       </c>
@@ -36744,7 +36746,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="93" spans="1:22" ht="23.25" customHeight="1">
+    <row r="93" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="526" t="s">
         <v>236</v>
       </c>
@@ -36810,7 +36812,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="94" spans="1:22" ht="23.25" customHeight="1">
+    <row r="94" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="526" t="s">
         <v>237</v>
       </c>
@@ -36876,7 +36878,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="95" spans="1:22" ht="23.25" customHeight="1">
+    <row r="95" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="526" t="s">
         <v>238</v>
       </c>
@@ -36938,7 +36940,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="96" spans="1:22" ht="23.25" customHeight="1">
+    <row r="96" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="526" t="s">
         <v>239</v>
       </c>
@@ -37002,7 +37004,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="97" spans="1:22" ht="23.25" customHeight="1">
+    <row r="97" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="526" t="s">
         <v>240</v>
       </c>
@@ -37066,7 +37068,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="98" spans="1:22" ht="23.25" customHeight="1">
+    <row r="98" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="538" t="s">
         <v>241</v>
       </c>
@@ -37132,7 +37134,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="99" spans="1:22" ht="23.25" customHeight="1">
+    <row r="99" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="565"/>
       <c r="B99" s="566"/>
       <c r="C99" s="566"/>
@@ -37144,7 +37146,7 @@
       <c r="Q99" s="566"/>
       <c r="R99" s="476"/>
     </row>
-    <row r="100" spans="1:22" ht="23.25" customHeight="1">
+    <row r="100" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="565"/>
       <c r="B100" s="566"/>
       <c r="C100" s="566"/>
@@ -37156,7 +37158,7 @@
       <c r="Q100" s="566"/>
       <c r="R100" s="476"/>
     </row>
-    <row r="101" spans="1:22" ht="23.25" customHeight="1">
+    <row r="101" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B101" s="568"/>
       <c r="C101" s="568"/>
       <c r="D101" s="568"/>
@@ -37174,7 +37176,7 @@
       <c r="T101" s="568"/>
       <c r="U101" s="570"/>
     </row>
-    <row r="102" spans="1:22" ht="23.25" customHeight="1">
+    <row r="102" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B102" s="566"/>
       <c r="C102" s="566"/>
       <c r="D102" s="566"/>
@@ -37192,10 +37194,10 @@
       <c r="T102" s="566"/>
       <c r="U102" s="571"/>
     </row>
-    <row r="103" spans="1:22" ht="23.25" customHeight="1">
+    <row r="103" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="572"/>
     </row>
-    <row r="104" spans="1:22" ht="23.25" customHeight="1">
+    <row r="104" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="572"/>
       <c r="B104" s="568"/>
       <c r="C104" s="568"/>
@@ -37214,7 +37216,7 @@
       <c r="T104" s="568"/>
       <c r="U104" s="570"/>
     </row>
-    <row r="105" spans="1:22" ht="23.25" customHeight="1">
+    <row r="105" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="572"/>
       <c r="B105" s="566"/>
       <c r="C105" s="566"/>
@@ -37233,16 +37235,16 @@
       <c r="T105" s="566"/>
       <c r="U105" s="571"/>
     </row>
-    <row r="106" spans="1:22" ht="23.25" customHeight="1">
+    <row r="106" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="572"/>
     </row>
-    <row r="107" spans="1:22" ht="23.25" customHeight="1">
+    <row r="107" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="572"/>
     </row>
-    <row r="108" spans="1:22" ht="23.25" customHeight="1">
+    <row r="108" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="572"/>
     </row>
-    <row r="109" spans="1:22" ht="30" customHeight="1">
+    <row r="109" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="475"/>
       <c r="B109" s="573"/>
       <c r="C109" s="573"/>
@@ -37258,54 +37260,54 @@
       <c r="Q109" s="573"/>
       <c r="R109" s="574"/>
     </row>
-    <row r="110" spans="1:22" ht="23.25" customHeight="1">
+    <row r="110" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="572"/>
     </row>
-    <row r="111" spans="1:22" ht="23.25" customHeight="1">
+    <row r="111" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="572"/>
     </row>
-    <row r="112" spans="1:22" ht="23.25" customHeight="1"/>
-    <row r="113" ht="23.25" customHeight="1"/>
-    <row r="114" ht="23.25" customHeight="1"/>
-    <row r="115" ht="23.25" customHeight="1"/>
-    <row r="116" ht="23.25" customHeight="1"/>
-    <row r="117" ht="23.25" customHeight="1"/>
-    <row r="118" ht="23.25" customHeight="1"/>
-    <row r="119" ht="23.25" customHeight="1"/>
-    <row r="120" ht="23.25" customHeight="1"/>
-    <row r="121" ht="23.25" customHeight="1"/>
-    <row r="122" ht="23.25" customHeight="1"/>
-    <row r="123" ht="23.25" customHeight="1"/>
-    <row r="124" ht="23.25" customHeight="1"/>
-    <row r="125" ht="23.25" customHeight="1"/>
-    <row r="126" ht="23.25" customHeight="1"/>
-    <row r="127" ht="23.25" customHeight="1"/>
-    <row r="128" ht="23.25" customHeight="1"/>
-    <row r="129" ht="23.25" customHeight="1"/>
-    <row r="130" ht="23.25" customHeight="1"/>
-    <row r="131" ht="23.25" customHeight="1"/>
-    <row r="132" ht="23.25" customHeight="1"/>
-    <row r="133" ht="23.25" customHeight="1"/>
-    <row r="134" ht="23.25" customHeight="1"/>
-    <row r="135" ht="23.25" customHeight="1"/>
-    <row r="136" ht="23.25" customHeight="1"/>
-    <row r="137" ht="23.25" customHeight="1"/>
-    <row r="138" ht="23.25" customHeight="1"/>
-    <row r="139" ht="23.25" customHeight="1"/>
-    <row r="140" ht="23.25" customHeight="1"/>
-    <row r="141" ht="23.25" customHeight="1"/>
-    <row r="142" ht="23.25" customHeight="1"/>
-    <row r="143" ht="23.25" customHeight="1"/>
-    <row r="144" ht="23.25" customHeight="1"/>
-    <row r="145" ht="23.25" customHeight="1"/>
-    <row r="146" ht="23.25" customHeight="1"/>
-    <row r="147" ht="23.25" customHeight="1"/>
-    <row r="148" ht="23.25" customHeight="1"/>
-    <row r="149" ht="23.25" customHeight="1"/>
-    <row r="150" ht="23.25" customHeight="1"/>
-    <row r="151" ht="23.25" customHeight="1"/>
-    <row r="152" ht="23.25" customHeight="1"/>
-    <row r="153" ht="23.25" customHeight="1"/>
+    <row r="112" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="113" ht="23.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="114" ht="23.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="115" ht="23.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="116" ht="23.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="117" ht="23.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="118" ht="23.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="119" ht="23.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="120" ht="23.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="121" ht="23.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="122" ht="23.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="123" ht="23.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="124" ht="23.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="125" ht="23.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="126" ht="23.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="127" ht="23.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="128" ht="23.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="129" ht="23.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="130" ht="23.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="131" ht="23.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="132" ht="23.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="133" ht="23.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="134" ht="23.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="135" ht="23.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="136" ht="23.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="137" ht="23.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="138" ht="23.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="139" ht="23.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="140" ht="23.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="141" ht="23.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="142" ht="23.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="143" ht="23.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="144" ht="23.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="145" ht="23.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="146" ht="23.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="147" ht="23.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="148" ht="23.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="149" ht="23.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="150" ht="23.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="151" ht="23.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="152" ht="23.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="153" ht="23.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <customSheetViews>
     <customSheetView guid="{05D2C257-AD29-4844-8E74-F8EBF9492FCE}" scale="70" zeroValues="0" hiddenColumns="1" showRuler="0" topLeftCell="C1">
@@ -37382,7 +37384,7 @@
       <selection pane="bottomRight" activeCell="Y18" sqref="Y18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.09765625" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.296875" style="3" customWidth="1"/>
@@ -37401,7 +37403,7 @@
     <col min="36" max="16384" width="10.69921875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="39.75" customHeight="1">
+    <row r="1" spans="1:35" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="216" t="s">
         <v>461</v>
       </c>
@@ -37418,7 +37420,7 @@
       <c r="AF1" s="7"/>
       <c r="AG1" s="7"/>
     </row>
-    <row r="2" spans="1:35" ht="23.25" customHeight="1">
+    <row r="2" spans="1:35" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="2"/>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
@@ -37454,7 +37456,7 @@
       <c r="AH2" s="629"/>
       <c r="AI2" s="629"/>
     </row>
-    <row r="3" spans="1:35" ht="23.25" customHeight="1">
+    <row r="3" spans="1:35" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="643" t="s">
         <v>442</v>
       </c>
@@ -37502,7 +37504,7 @@
       <c r="AH3" s="652"/>
       <c r="AI3" s="653"/>
     </row>
-    <row r="4" spans="1:35" ht="40.5" customHeight="1" thickBot="1">
+    <row r="4" spans="1:35" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="645"/>
       <c r="B4" s="646"/>
       <c r="C4" s="62" t="s">
@@ -37602,7 +37604,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:35" s="66" customFormat="1" ht="23.25" customHeight="1" thickTop="1" thickBot="1">
+    <row r="5" spans="1:35" s="66" customFormat="1" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="647" t="s">
         <v>401</v>
       </c>
@@ -37707,7 +37709,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="6" spans="1:35" s="66" customFormat="1" ht="23.25" customHeight="1" thickTop="1">
+    <row r="6" spans="1:35" s="66" customFormat="1" ht="23.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A6" s="648"/>
       <c r="B6" s="449" t="s">
         <v>408</v>
@@ -37760,7 +37762,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="7" spans="1:35" ht="23.25" customHeight="1">
+    <row r="7" spans="1:35" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="648"/>
       <c r="B7" s="450" t="s">
         <v>402</v>
@@ -37861,7 +37863,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="8" spans="1:35" s="3" customFormat="1" ht="23.25" customHeight="1">
+    <row r="8" spans="1:35" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="649"/>
       <c r="B8" s="451" t="s">
         <v>403</v>
@@ -37938,7 +37940,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="1:35" s="3" customFormat="1" ht="23.25" customHeight="1">
+    <row r="9" spans="1:35" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
@@ -37973,7 +37975,7 @@
       <c r="AH9" s="61"/>
       <c r="AI9" s="61"/>
     </row>
-    <row r="10" spans="1:35" s="3" customFormat="1" ht="23.25" customHeight="1">
+    <row r="10" spans="1:35" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="418" t="s">
         <v>446</v>
       </c>
@@ -38011,7 +38013,7 @@
       <c r="AH10" s="61"/>
       <c r="AI10" s="61"/>
     </row>
-    <row r="11" spans="1:35" s="3" customFormat="1" ht="23.25" customHeight="1">
+    <row r="11" spans="1:35" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="418" t="s">
         <v>447</v>
       </c>
@@ -38049,7 +38051,7 @@
       <c r="AH11" s="61"/>
       <c r="AI11" s="61"/>
     </row>
-    <row r="12" spans="1:35" s="3" customFormat="1" ht="23.25" customHeight="1">
+    <row r="12" spans="1:35" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -38084,7 +38086,7 @@
       <c r="AH12" s="61"/>
       <c r="AI12" s="61"/>
     </row>
-    <row r="13" spans="1:35" s="3" customFormat="1" ht="23.25" customHeight="1">
+    <row r="13" spans="1:35" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -38119,7 +38121,7 @@
       <c r="AH13" s="61"/>
       <c r="AI13" s="61"/>
     </row>
-    <row r="14" spans="1:35" s="3" customFormat="1" ht="23.25" customHeight="1">
+    <row r="14" spans="1:35" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -38154,7 +38156,7 @@
       <c r="AH14" s="61"/>
       <c r="AI14" s="61"/>
     </row>
-    <row r="15" spans="1:35" s="3" customFormat="1" ht="23.25" customHeight="1">
+    <row r="15" spans="1:35" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -38189,7 +38191,7 @@
       <c r="AH15" s="61"/>
       <c r="AI15" s="61"/>
     </row>
-    <row r="16" spans="1:35" s="3" customFormat="1" ht="23.25" customHeight="1">
+    <row r="16" spans="1:35" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -38224,7 +38226,7 @@
       <c r="AH16" s="61"/>
       <c r="AI16" s="61"/>
     </row>
-    <row r="17" spans="3:35" s="3" customFormat="1" ht="23.25" customHeight="1">
+    <row r="17" spans="3:35" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -38259,7 +38261,7 @@
       <c r="AH17" s="61"/>
       <c r="AI17" s="61"/>
     </row>
-    <row r="18" spans="3:35" s="3" customFormat="1" ht="23.25" customHeight="1">
+    <row r="18" spans="3:35" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -38294,7 +38296,7 @@
       <c r="AH18" s="61"/>
       <c r="AI18" s="61"/>
     </row>
-    <row r="19" spans="3:35" s="3" customFormat="1" ht="23.25" customHeight="1">
+    <row r="19" spans="3:35" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -38329,7 +38331,7 @@
       <c r="AH19" s="61"/>
       <c r="AI19" s="61"/>
     </row>
-    <row r="20" spans="3:35" s="3" customFormat="1" ht="23.25" customHeight="1">
+    <row r="20" spans="3:35" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -38364,7 +38366,7 @@
       <c r="AH20" s="61"/>
       <c r="AI20" s="61"/>
     </row>
-    <row r="21" spans="3:35" s="3" customFormat="1" ht="23.25" customHeight="1">
+    <row r="21" spans="3:35" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -38399,7 +38401,7 @@
       <c r="AH21" s="61"/>
       <c r="AI21" s="61"/>
     </row>
-    <row r="22" spans="3:35" s="3" customFormat="1" ht="23.25" customHeight="1">
+    <row r="22" spans="3:35" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -38434,7 +38436,7 @@
       <c r="AH22" s="61"/>
       <c r="AI22" s="61"/>
     </row>
-    <row r="23" spans="3:35" s="3" customFormat="1" ht="23.25" customHeight="1">
+    <row r="23" spans="3:35" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -38469,7 +38471,7 @@
       <c r="AH23" s="61"/>
       <c r="AI23" s="61"/>
     </row>
-    <row r="24" spans="3:35" s="3" customFormat="1" ht="23.25" customHeight="1">
+    <row r="24" spans="3:35" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -38504,7 +38506,7 @@
       <c r="AH24" s="61"/>
       <c r="AI24" s="61"/>
     </row>
-    <row r="25" spans="3:35" s="3" customFormat="1" ht="23.25" customHeight="1">
+    <row r="25" spans="3:35" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -38539,7 +38541,7 @@
       <c r="AH25" s="61"/>
       <c r="AI25" s="61"/>
     </row>
-    <row r="26" spans="3:35" s="3" customFormat="1" ht="23.25" customHeight="1">
+    <row r="26" spans="3:35" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -38606,7 +38608,7 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.69921875" style="3" customWidth="1"/>
     <col min="2" max="2" width="14.3984375" style="8" customWidth="1"/>
@@ -38619,12 +38621,12 @@
     <col min="18" max="16384" width="10.69921875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="17.25" customHeight="1">
+    <row r="1" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="217" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -38644,7 +38646,7 @@
       <c r="P2" s="629"/>
       <c r="Q2" s="629"/>
     </row>
-    <row r="3" spans="1:17" ht="23.1" customHeight="1">
+    <row r="3" spans="1:17" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="643" t="s">
         <v>453</v>
       </c>
@@ -38672,7 +38674,7 @@
       <c r="P3" s="652"/>
       <c r="Q3" s="653"/>
     </row>
-    <row r="4" spans="1:17" ht="23.1" customHeight="1">
+    <row r="4" spans="1:17" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="668"/>
       <c r="B4" s="669"/>
       <c r="C4" s="672"/>
@@ -38716,7 +38718,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="22.5" customHeight="1" thickBot="1">
+    <row r="5" spans="1:17" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="645"/>
       <c r="B5" s="670"/>
       <c r="C5" s="672"/>
@@ -38734,7 +38736,7 @@
       <c r="P5" s="687"/>
       <c r="Q5" s="687"/>
     </row>
-    <row r="6" spans="1:17" ht="23.1" customHeight="1" thickTop="1" thickBot="1">
+    <row r="6" spans="1:17" ht="23.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="664" t="s">
         <v>108</v>
       </c>
@@ -38780,7 +38782,7 @@
         <v>3101</v>
       </c>
     </row>
-    <row r="7" spans="1:17" s="66" customFormat="1" ht="23.1" customHeight="1" thickTop="1" thickBot="1">
+    <row r="7" spans="1:17" s="66" customFormat="1" ht="23.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="659" t="s">
         <v>109</v>
       </c>
@@ -38827,7 +38829,7 @@
         <v>3089</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="23.1" customHeight="1" thickTop="1">
+    <row r="8" spans="1:17" ht="23.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A8" s="678" t="s">
         <v>454</v>
       </c>
@@ -38875,7 +38877,7 @@
         <v>2734</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="23.1" customHeight="1">
+    <row r="9" spans="1:17" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="679"/>
       <c r="B9" s="648"/>
       <c r="C9" s="293" t="s">
@@ -38922,7 +38924,7 @@
         <v>2742</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="23.1" customHeight="1">
+    <row r="10" spans="1:17" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="679"/>
       <c r="B10" s="648"/>
       <c r="C10" s="158" t="s">
@@ -38968,7 +38970,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="23.1" customHeight="1">
+    <row r="11" spans="1:17" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="679"/>
       <c r="B11" s="648"/>
       <c r="C11" s="160" t="s">
@@ -39014,7 +39016,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="23.1" customHeight="1">
+    <row r="12" spans="1:17" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="679"/>
       <c r="B12" s="648"/>
       <c r="C12" s="160" t="s">
@@ -39060,7 +39062,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="23.1" customHeight="1">
+    <row r="13" spans="1:17" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="679"/>
       <c r="B13" s="648"/>
       <c r="C13" s="292" t="s">
@@ -39107,7 +39109,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="23.1" customHeight="1">
+    <row r="14" spans="1:17" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="679"/>
       <c r="B14" s="649"/>
       <c r="C14" s="163" t="s">
@@ -39154,7 +39156,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="23.1" customHeight="1">
+    <row r="15" spans="1:17" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="679"/>
       <c r="B15" s="681" t="s">
         <v>137</v>
@@ -39202,7 +39204,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="23.1" customHeight="1">
+    <row r="16" spans="1:17" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="679"/>
       <c r="B16" s="648"/>
       <c r="C16" s="293" t="s">
@@ -39249,7 +39251,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="23.1" customHeight="1">
+    <row r="17" spans="1:17" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="679"/>
       <c r="B17" s="648"/>
       <c r="C17" s="158" t="s">
@@ -39295,7 +39297,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="23.1" customHeight="1" thickBot="1">
+    <row r="18" spans="1:17" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="680"/>
       <c r="B18" s="682"/>
       <c r="C18" s="294" t="s">
@@ -39341,7 +39343,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="23.1" customHeight="1" thickTop="1">
+    <row r="19" spans="1:17" ht="23.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A19" s="679" t="s">
         <v>381</v>
       </c>
@@ -39387,7 +39389,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="23.1" customHeight="1">
+    <row r="20" spans="1:17" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="679"/>
       <c r="B20" s="681" t="s">
         <v>35</v>
@@ -39436,7 +39438,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="23.1" customHeight="1">
+    <row r="21" spans="1:17" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="679"/>
       <c r="B21" s="648"/>
       <c r="C21" s="158" t="s">
@@ -39478,7 +39480,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="23.1" customHeight="1">
+    <row r="22" spans="1:17" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="679"/>
       <c r="B22" s="649"/>
       <c r="C22" s="293" t="s">
@@ -39520,7 +39522,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="23.1" customHeight="1">
+    <row r="23" spans="1:17" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="679"/>
       <c r="B23" s="681" t="s">
         <v>156</v>
@@ -39569,7 +39571,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="23.1" customHeight="1">
+    <row r="24" spans="1:17" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="679"/>
       <c r="B24" s="648"/>
       <c r="C24" s="292" t="s">
@@ -39611,7 +39613,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="23.1" customHeight="1">
+    <row r="25" spans="1:17" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="679"/>
       <c r="B25" s="648"/>
       <c r="C25" s="160" t="s">
@@ -39653,7 +39655,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="23.1" customHeight="1">
+    <row r="26" spans="1:17" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="679"/>
       <c r="B26" s="648"/>
       <c r="C26" s="160" t="s">
@@ -39695,7 +39697,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="23.1" customHeight="1">
+    <row r="27" spans="1:17" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="679"/>
       <c r="B27" s="649"/>
       <c r="C27" s="293" t="s">
@@ -39737,7 +39739,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="22.5" customHeight="1">
+    <row r="28" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="679"/>
       <c r="B28" s="681" t="s">
         <v>36</v>
@@ -39786,7 +39788,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="23.1" customHeight="1">
+    <row r="29" spans="1:17" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="679"/>
       <c r="B29" s="648"/>
       <c r="C29" s="173" t="s">
@@ -39828,7 +39830,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="23.1" customHeight="1">
+    <row r="30" spans="1:17" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="679"/>
       <c r="B30" s="648"/>
       <c r="C30" s="160" t="s">
@@ -39870,7 +39872,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="23.1" customHeight="1">
+    <row r="31" spans="1:17" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="679"/>
       <c r="B31" s="649"/>
       <c r="C31" s="293" t="s">
@@ -39912,7 +39914,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="23.1" customHeight="1">
+    <row r="32" spans="1:17" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="679"/>
       <c r="B32" s="175" t="s">
         <v>398</v>
@@ -39958,7 +39960,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="23.1" customHeight="1">
+    <row r="33" spans="1:17" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="679"/>
       <c r="B33" s="177" t="s">
         <v>399</v>
@@ -40002,7 +40004,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="23.1" customHeight="1">
+    <row r="34" spans="1:17" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="683"/>
       <c r="B34" s="178" t="s">
         <v>366</v>
@@ -40046,7 +40048,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="35" spans="1:17" ht="23.1" customHeight="1">
+    <row r="35" spans="1:17" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="675" t="s">
         <v>455</v>
       </c>
@@ -40096,7 +40098,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="36" spans="1:17" ht="23.1" customHeight="1">
+    <row r="36" spans="1:17" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="676"/>
       <c r="B36" s="168" t="s">
         <v>114</v>
@@ -40144,7 +40146,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:17" ht="23.1" customHeight="1">
+    <row r="37" spans="1:17" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="677"/>
       <c r="B37" s="165" t="s">
         <v>159</v>
@@ -40192,19 +40194,19 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:17">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" s="94"/>
       <c r="G38" s="8" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="39" spans="1:17">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="G39" s="8" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="42" spans="1:17" ht="16.5" customHeight="1"/>
-    <row r="43" spans="1:17" ht="16.5" customHeight="1"/>
+    <row r="42" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <customSheetViews>
     <customSheetView guid="{05D2C257-AD29-4844-8E74-F8EBF9492FCE}" scale="55" showRuler="0" topLeftCell="A3">
@@ -40290,10 +40292,10 @@
   <dimension ref="A1:W44"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="50" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="U20" sqref="U20"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.59765625" defaultRowHeight="20.25" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="7.59765625" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.09765625" style="3" customWidth="1"/>
     <col min="2" max="2" width="5.69921875" style="3" customWidth="1"/>
@@ -40310,7 +40312,7 @@
     <col min="24" max="16384" width="7.59765625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="20.25" customHeight="1">
+    <row r="1" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="215" t="s">
         <v>463</v>
       </c>
@@ -40333,7 +40335,7 @@
       <c r="R1" s="5"/>
       <c r="S1" s="5"/>
     </row>
-    <row r="2" spans="1:23" s="7" customFormat="1" ht="13.5">
+    <row r="2" spans="1:23" s="7" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A2" s="24"/>
       <c r="B2" s="38"/>
       <c r="C2" s="38"/>
@@ -40358,7 +40360,7 @@
       <c r="V2" s="699"/>
       <c r="W2" s="699"/>
     </row>
-    <row r="3" spans="1:23" s="3" customFormat="1" ht="20.25" customHeight="1">
+    <row r="3" spans="1:23" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="700" t="s">
         <v>453</v>
       </c>
@@ -40391,7 +40393,7 @@
       <c r="V3" s="652"/>
       <c r="W3" s="653"/>
     </row>
-    <row r="4" spans="1:23" s="3" customFormat="1" ht="20.25" customHeight="1">
+    <row r="4" spans="1:23" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="702"/>
       <c r="B4" s="703"/>
       <c r="C4" s="692" t="s">
@@ -40452,7 +40454,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:23" s="3" customFormat="1" ht="20.25" customHeight="1" thickBot="1">
+    <row r="5" spans="1:23" s="3" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="704"/>
       <c r="B5" s="705"/>
       <c r="C5" s="697" t="s">
@@ -40493,7 +40495,7 @@
       <c r="V5" s="688"/>
       <c r="W5" s="689"/>
     </row>
-    <row r="6" spans="1:23" ht="20.25" customHeight="1" thickTop="1" thickBot="1">
+    <row r="6" spans="1:23" ht="20.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="690" t="s">
         <v>126</v>
       </c>
@@ -40556,7 +40558,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="20.25" customHeight="1" thickTop="1">
+    <row r="7" spans="1:23" ht="20.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A7" s="648" t="s">
         <v>380</v>
       </c>
@@ -40573,7 +40575,7 @@
         <v>83</v>
       </c>
       <c r="F7" s="45">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G7" s="45">
         <v>71</v>
@@ -40588,7 +40590,7 @@
         <v>12</v>
       </c>
       <c r="K7" s="50">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L7" s="51">
         <v>1021</v>
@@ -40627,7 +40629,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="20.25" customHeight="1">
+    <row r="8" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="648"/>
       <c r="B8" s="291" t="s">
         <v>143</v>
@@ -40696,7 +40698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="20.25" customHeight="1">
+    <row r="9" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="648"/>
       <c r="B9" s="44" t="s">
         <v>144</v>
@@ -40765,7 +40767,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="20.25" customHeight="1">
+    <row r="10" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="648"/>
       <c r="B10" s="44" t="s">
         <v>145</v>
@@ -40834,7 +40836,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="20.25" customHeight="1">
+    <row r="11" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="648"/>
       <c r="B11" s="44" t="s">
         <v>71</v>
@@ -40903,7 +40905,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="20.25" customHeight="1">
+    <row r="12" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="648"/>
       <c r="B12" s="291" t="s">
         <v>72</v>
@@ -40972,7 +40974,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="20.25" customHeight="1">
+    <row r="13" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="681" t="s">
         <v>370</v>
       </c>
@@ -41041,7 +41043,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="20.25" customHeight="1">
+    <row r="14" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="648"/>
       <c r="B14" s="413" t="s">
         <v>369</v>
@@ -41081,7 +41083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="20.25" customHeight="1">
+    <row r="15" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="648"/>
       <c r="B15" s="44" t="s">
         <v>371</v>
@@ -41129,7 +41131,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="20.25" customHeight="1">
+    <row r="16" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="648"/>
       <c r="B16" s="44" t="s">
         <v>372</v>
@@ -41173,7 +41175,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="20.25" customHeight="1">
+    <row r="17" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="648"/>
       <c r="B17" s="44" t="s">
         <v>71</v>
@@ -41221,7 +41223,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="20.25" customHeight="1">
+    <row r="18" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="649"/>
       <c r="B18" s="43" t="s">
         <v>72</v>
@@ -41265,7 +41267,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="20.25" customHeight="1">
+    <row r="19" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="648" t="s">
         <v>373</v>
       </c>
@@ -41280,7 +41282,7 @@
         <v>18</v>
       </c>
       <c r="F19" s="46">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G19" s="46">
         <v>16</v>
@@ -41295,7 +41297,7 @@
         <v>1</v>
       </c>
       <c r="K19" s="48">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L19" s="425">
         <v>0</v>
@@ -41334,7 +41336,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="20.25" customHeight="1">
+    <row r="20" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="648"/>
       <c r="B20" s="291" t="s">
         <v>369</v>
@@ -41364,7 +41366,7 @@
       <c r="V20" s="13"/>
       <c r="W20" s="349"/>
     </row>
-    <row r="21" spans="1:23" ht="20.25" customHeight="1">
+    <row r="21" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="648"/>
       <c r="B21" s="44" t="s">
         <v>371</v>
@@ -41426,7 +41428,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="20.25" customHeight="1">
+    <row r="22" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="648"/>
       <c r="B22" s="44" t="s">
         <v>372</v>
@@ -41439,7 +41441,7 @@
         <v>6</v>
       </c>
       <c r="F22" s="15">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G22" s="15">
         <v>6</v>
@@ -41448,7 +41450,7 @@
       <c r="I22" s="15"/>
       <c r="J22" s="15"/>
       <c r="K22" s="14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L22" s="22"/>
       <c r="M22" s="27">
@@ -41476,7 +41478,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="20.25" customHeight="1">
+    <row r="23" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="648"/>
       <c r="B23" s="291" t="s">
         <v>71</v>
@@ -41524,7 +41526,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="20.25" customHeight="1">
+    <row r="24" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="681" t="s">
         <v>374</v>
       </c>
@@ -41593,7 +41595,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="20.25" customHeight="1">
+    <row r="25" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="648"/>
       <c r="B25" s="413" t="s">
         <v>371</v>
@@ -41651,7 +41653,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="20.25" customHeight="1">
+    <row r="26" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="648"/>
       <c r="B26" s="44" t="s">
         <v>372</v>
@@ -41699,7 +41701,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="20.25" customHeight="1">
+    <row r="27" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="649"/>
       <c r="B27" s="43" t="s">
         <v>71</v>
@@ -41747,7 +41749,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="20.25" customHeight="1">
+    <row r="28" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="648" t="s">
         <v>379</v>
       </c>
@@ -41816,7 +41818,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="20.25" customHeight="1">
+    <row r="29" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="648"/>
       <c r="B29" s="291" t="s">
         <v>375</v>
@@ -41878,7 +41880,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="20.25" customHeight="1">
+    <row r="30" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="648"/>
       <c r="B30" s="44" t="s">
         <v>376</v>
@@ -41928,7 +41930,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="20.25" customHeight="1">
+    <row r="31" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="648"/>
       <c r="B31" s="413" t="s">
         <v>71</v>
@@ -41976,7 +41978,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="20.25" customHeight="1">
+    <row r="32" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="681" t="s">
         <v>73</v>
       </c>
@@ -42045,7 +42047,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:23" ht="20.25" customHeight="1">
+    <row r="33" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="648"/>
       <c r="B33" s="413" t="s">
         <v>378</v>
@@ -42075,7 +42077,7 @@
       <c r="V33" s="13"/>
       <c r="W33" s="349"/>
     </row>
-    <row r="34" spans="1:23" ht="20.25" customHeight="1">
+    <row r="34" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="648"/>
       <c r="B34" s="44" t="s">
         <v>375</v>
@@ -42135,7 +42137,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:23" ht="20.25" customHeight="1">
+    <row r="35" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="648"/>
       <c r="B35" s="44" t="s">
         <v>376</v>
@@ -42185,7 +42187,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:23" ht="20.25" customHeight="1">
+    <row r="36" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="649"/>
       <c r="B36" s="43" t="s">
         <v>71</v>
@@ -42233,7 +42235,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:23" ht="20.25" customHeight="1">
+    <row r="37" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="648" t="s">
         <v>74</v>
       </c>
@@ -42302,7 +42304,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:23" ht="20.25" customHeight="1">
+    <row r="38" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="648"/>
       <c r="B38" s="291" t="s">
         <v>375</v>
@@ -42364,7 +42366,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:23" ht="20.25" customHeight="1">
+    <row r="39" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="648"/>
       <c r="B39" s="44" t="s">
         <v>376</v>
@@ -42412,7 +42414,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:23" ht="20.25" customHeight="1">
+    <row r="40" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="648"/>
       <c r="B40" s="413" t="s">
         <v>71</v>
@@ -42460,7 +42462,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="1:23" ht="20.25" customHeight="1">
+    <row r="41" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="681" t="s">
         <v>390</v>
       </c>
@@ -42529,7 +42531,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:23" ht="20.25" customHeight="1">
+    <row r="42" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="648"/>
       <c r="B42" s="413" t="s">
         <v>375</v>
@@ -42567,7 +42569,7 @@
       </c>
       <c r="W42" s="349"/>
     </row>
-    <row r="43" spans="1:23" ht="20.25" customHeight="1">
+    <row r="43" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="648"/>
       <c r="B43" s="44" t="s">
         <v>376</v>
@@ -42611,7 +42613,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:23" ht="20.25" customHeight="1">
+    <row r="44" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="649"/>
       <c r="B44" s="43" t="s">
         <v>71</v>
@@ -42713,7 +42715,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.296875" style="180" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.796875" style="180" customWidth="1"/>
@@ -42725,14 +42727,14 @@
     <col min="21" max="16384" width="10.69921875" style="180"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="33.75" customHeight="1">
+    <row r="1" spans="1:19" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="216" t="s">
         <v>464</v>
       </c>
       <c r="P1" s="181"/>
       <c r="S1" s="180"/>
     </row>
-    <row r="2" spans="1:19" ht="33.75" customHeight="1" thickBot="1">
+    <row r="2" spans="1:19" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B2" s="182"/>
       <c r="C2" s="183"/>
       <c r="D2" s="183"/>
@@ -42753,7 +42755,7 @@
       <c r="Q2" s="712"/>
       <c r="R2" s="712"/>
     </row>
-    <row r="3" spans="1:19" s="8" customFormat="1" ht="32.25" customHeight="1">
+    <row r="3" spans="1:19" s="8" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="721" t="s">
         <v>382</v>
       </c>
@@ -42781,7 +42783,7 @@
       <c r="Q3" s="714"/>
       <c r="R3" s="715"/>
     </row>
-    <row r="4" spans="1:19" s="8" customFormat="1" ht="32.25" customHeight="1" thickBot="1">
+    <row r="4" spans="1:19" s="8" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="723"/>
       <c r="B4" s="724"/>
       <c r="C4" s="352" t="s">
@@ -42831,7 +42833,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:19" s="8" customFormat="1" ht="32.25" customHeight="1" thickTop="1" thickBot="1">
+    <row r="5" spans="1:19" s="8" customFormat="1" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="706" t="s">
         <v>431</v>
       </c>
@@ -42885,7 +42887,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="6" spans="1:19" s="66" customFormat="1" ht="50.25" customHeight="1" thickTop="1">
+    <row r="6" spans="1:19" s="66" customFormat="1" ht="50.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A6" s="707"/>
       <c r="B6" s="453" t="s">
         <v>434</v>
@@ -42937,7 +42939,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="7" spans="1:19" s="8" customFormat="1" ht="32.25" customHeight="1">
+    <row r="7" spans="1:19" s="8" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="707"/>
       <c r="B7" s="420" t="s">
         <v>448</v>
@@ -42989,7 +42991,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:19" s="8" customFormat="1" ht="32.25" customHeight="1">
+    <row r="8" spans="1:19" s="8" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="707"/>
       <c r="B8" s="454" t="s">
         <v>449</v>
@@ -43041,7 +43043,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:19" s="8" customFormat="1" ht="32.25" customHeight="1">
+    <row r="9" spans="1:19" s="8" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="707"/>
       <c r="B9" s="454" t="s">
         <v>450</v>
@@ -43093,7 +43095,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:19" s="8" customFormat="1" ht="32.25" customHeight="1">
+    <row r="10" spans="1:19" s="8" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="707"/>
       <c r="B10" s="454" t="s">
         <v>451</v>
@@ -43145,7 +43147,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:19" s="8" customFormat="1" ht="32.25" customHeight="1" thickBot="1">
+    <row r="11" spans="1:19" s="8" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="708"/>
       <c r="B11" s="455" t="s">
         <v>452</v>
@@ -43197,7 +43199,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:19" s="8" customFormat="1" ht="32.25" customHeight="1" thickBot="1">
+    <row r="12" spans="1:19" s="8" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="709" t="s">
         <v>432</v>
       </c>
@@ -43239,7 +43241,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:19" s="8" customFormat="1" ht="50.25" customHeight="1" thickTop="1">
+    <row r="13" spans="1:19" s="8" customFormat="1" ht="50.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A13" s="710"/>
       <c r="B13" s="457" t="s">
         <v>95</v>
@@ -43291,7 +43293,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:19" s="8" customFormat="1" ht="32.25" customHeight="1">
+    <row r="14" spans="1:19" s="8" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="710"/>
       <c r="B14" s="458" t="s">
         <v>84</v>
@@ -43331,7 +43333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:19" s="8" customFormat="1" ht="32.25" customHeight="1">
+    <row r="15" spans="1:19" s="8" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="710"/>
       <c r="B15" s="459" t="s">
         <v>129</v>
@@ -43371,7 +43373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:19" s="8" customFormat="1" ht="32.25" customHeight="1">
+    <row r="16" spans="1:19" s="8" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="710"/>
       <c r="B16" s="459" t="s">
         <v>130</v>
@@ -43411,7 +43413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:18" s="8" customFormat="1" ht="32.25" customHeight="1" thickBot="1">
+    <row r="17" spans="1:18" s="8" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="711"/>
       <c r="B17" s="460" t="s">
         <v>85</v>
